--- a/notion_data/HO_SO_NHAN_SU.xlsx
+++ b/notion_data/HO_SO_NHAN_SU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI27"/>
+  <dimension ref="A1:BJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,187 +556,192 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>properties.Chức vụ.select</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Phân cấp.id</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Phân cấp.type</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Phân cấp.select</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày bắt đầu làm việc.id</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày bắt đầu làm việc.type</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Ngày bắt đầu làm việc.date</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Mã nhân viên.id</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Mã nhân viên.type</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Mã nhân viên.unique_id.prefix</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Mã nhân viên.unique_id.number</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Cơ sở.id</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Cơ sở.type</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Cơ sở.select</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>properties.SĐT.id</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>properties.SĐT.type</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>properties.SĐT.phone_number</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Email.id</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Email.type</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Email.email</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Họ và tên.id</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Họ và tên.type</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Họ và tên.title</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
           <t>properties.Chức vụ.select.id</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.name</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.color</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Phân cấp.id</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Phân cấp.type</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.id</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.name</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.color</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày bắt đầu làm việc.id</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày bắt đầu làm việc.type</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày bắt đầu làm việc.date</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Mã nhân viên.id</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Mã nhân viên.type</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Mã nhân viên.unique_id.prefix</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Mã nhân viên.unique_id.number</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Cơ sở.id</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Cơ sở.type</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.id</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.name</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.color</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>properties.SĐT.id</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>properties.SĐT.type</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>properties.SĐT.phone_number</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Email.id</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Email.type</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Email.email</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Họ và tên.id</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Họ và tên.type</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Họ và tên.title</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.start</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.end</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.time_zone</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.start</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.end</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.time_zone</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Phân cấp.select</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Chức vụ.select</t>
         </is>
       </c>
     </row>
@@ -748,17 +753,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d8178da7-a5cc-474f-9c6e-ed3029f89c4d</t>
+          <t>da161f60-6bcb-435e-b35f-98dc582352bd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-02T17:59:00.000Z</t>
+          <t>2024-07-06T15:57:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-02T18:00:00.000Z</t>
+          <t>2024-07-06T15:57:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -771,7 +776,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Sang-sang-d8178da7a5cc474f9c6eed3029f89c4d</t>
+          <t>https://www.notion.so/huynh-da161f606bcb435eb35f98dc582352bd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -782,7 +787,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -792,7 +797,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -841,137 +846,101 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
-        </is>
-      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Sale &amp; Lễ Tân</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>|HxR</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Thử việc</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>kDDv</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM2" t="n">
-        <v>40</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>Lj_l</t>
+          <t>x%7BZK</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>tSw%40</t>
+          <t>title</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'huynh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'huynh', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Sang sang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sang sang', 'href': None}]</t>
-        </is>
-      </c>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -980,6 +949,7 @@
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -989,17 +959,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ea0572af-f8c9-430d-9d95-23303a4ce4cd</t>
+          <t>d8178da7-a5cc-474f-9c6e-ed3029f89c4d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-02T17:24:00.000Z</t>
+          <t>2024-07-02T17:59:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-02T17:27:00.000Z</t>
+          <t>2024-07-02T18:00:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1012,7 +982,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/La-Th-Ng-c-H-My-ea0572aff8c9430d9d9523303a4ce4cd</t>
+          <t>https://www.notion.so/Sang-sang-d8178da7a5cc474f9c6eed3029f89c4d</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1069,7 +1039,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1082,153 +1052,146 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Sang sang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sang sang', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>x&gt;Ke</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>Học việc</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM3" t="n">
-        <v>39</v>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>|HxR</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Thử việc</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'La Thị Ngọc Hà My ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'La Thị Ngọc Hà My ', 'href': None}]</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>1998-01-01</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>2024-07-01</t>
-        </is>
-      </c>
+          <t>Lj_l</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1238,17 +1201,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>90bc02c2-bd1e-4c33-884a-38a1db528c78</t>
+          <t>ea0572af-f8c9-430d-9d95-23303a4ce4cd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-02T17:18:00.000Z</t>
+          <t>2024-07-02T17:24:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-02T17:23:00.000Z</t>
+          <t>2024-07-02T17:27:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1261,7 +1224,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-Th-Ng-c-Mi-90bc02c2bd1e4c33884a38a1db528c78</t>
+          <t>https://www.notion.so/La-Th-Ng-c-H-My-ea0572aff8c9430d9d9523303a4ce4cd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1318,7 +1281,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'href': None}]</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1331,157 +1294,154 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'La Thị Ngọc Hà My ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'La Thị Ngọc Hà My ', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>|HxR</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Thử việc</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>0852169606</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>x&gt;Ke</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Học việc</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Thị Ngọc Mi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Thị Ngọc Mi', 'href': None}]</t>
+          <t>default</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>2004-01-13</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>1998-01-01</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
       <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1491,17 +1451,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>049e08c7-01e5-4ac6-bb22-4d52622559f1</t>
+          <t>90bc02c2-bd1e-4c33-884a-38a1db528c78</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-17T17:35:00.000Z</t>
+          <t>2024-07-02T17:18:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-02T17:16:00.000Z</t>
+          <t>2024-07-02T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1514,7 +1474,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/B-c-S-Th-o-049e08c701e54ac6bb224d52622559f1</t>
+          <t>https://www.notion.so/L-Th-Ng-c-Mi-90bc02c2bd1e4c33884a38a1db528c78</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1584,133 +1544,158 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>38</v>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM5" t="n">
-        <v>37</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>0852169606</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>x%7BZK</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>tSw%40</t>
+          <t>title</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr"/>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Thị Ngọc Mi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Thị Ngọc Mi', 'href': None}]</t>
+        </is>
+      </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr"/>
+          <t>Sale &amp; Lễ Tân</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>|HxR</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Thử việc</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Thảo', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Thảo', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>2004-01-13</t>
+        </is>
+      </c>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
       <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1720,17 +1705,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>467f676f-8f46-49b5-afea-feecb0794d23</t>
+          <t>049e08c7-01e5-4ac6-bb22-4d52622559f1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-16T09:45:00.000Z</t>
+          <t>2024-06-17T17:35:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-06-29T21:00:00.000Z</t>
+          <t>2024-07-02T17:16:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1743,7 +1728,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ng-Ng-c-Mai-467f676f8f4649b5afeafeecb0794d23</t>
+          <t>https://www.notion.so/B-c-S-Th-o-049e08c701e54ac6bb224d52622559f1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1800,7 +1785,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Hưng yên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hưng yên', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1813,153 +1798,134 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>7b471659-968e-4223-a416-2ea11902750b</t>
-        </is>
-      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Kỹ thuật viên</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>|HxR</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>Thử việc</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>kDDv</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>37</v>
+      </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM6" t="n">
-        <v>36</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>Lj_l</t>
+          <t>x%7BZK</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>tSw%40</t>
+          <t>title</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr"/>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Thảo', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Thảo', 'href': None}]</t>
+        </is>
+      </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đặng Ngọc Mai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đặng Ngọc Mai', 'href': None}]</t>
-        </is>
-      </c>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>2005-01-18</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>2024-06-17</t>
-        </is>
-      </c>
+          <t>;;Tu</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1969,17 +1935,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>e0ac0375-0b3a-4c88-a613-cb8df33ebe6b</t>
+          <t>467f676f-8f46-49b5-afea-feecb0794d23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-05T12:48:00.000Z</t>
+          <t>2024-06-16T09:45:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-02T18:02:00.000Z</t>
+          <t>2024-06-29T21:00:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1992,7 +1958,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-Th-H-ng-e0ac03750b3a4c88a613cb8df33ebe6b</t>
+          <t>https://www.notion.so/ng-Ng-c-Mai-467f676f8f4649b5afeafeecb0794d23</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -2003,7 +1969,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -2049,7 +2015,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Hưng yên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hưng yên', 'href': None}]</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2063,120 +2029,153 @@
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>OaR_</t>
         </is>
       </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>36</v>
+      </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM7" t="n">
-        <v>35</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>x%7BZK</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>tSw%40</t>
+          <t>title</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr"/>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Đặng Ngọc Mai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đặng Ngọc Mai', 'href': None}]</t>
+        </is>
+      </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr"/>
+          <t>Kỹ thuật viên</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>|HxR</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Thử việc</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Hường', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Hường', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>2005-01-18</t>
+        </is>
+      </c>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
       <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2186,17 +2185,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>545126c4-c319-4d90-a506-2627e3e232a0</t>
+          <t>e0ac0375-0b3a-4c88-a613-cb8df33ebe6b</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-05T05:44:00.000Z</t>
+          <t>2024-06-05T12:48:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-02T17:16:00.000Z</t>
+          <t>2024-07-02T18:02:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2209,7 +2208,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/B-c-S-Ngo-i-545126c4c3194d90a5062627e3e232a0</t>
+          <t>https://www.notion.so/L-m-Th-H-ng-e0ac03750b3a4c88a613cb8df33ebe6b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2220,7 +2219,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -2279,133 +2278,122 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
-        </is>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr"/>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI8" t="n">
+        <v>35</v>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Hường', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Hường', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr">
+        <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="BC8" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="BD8" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Ngoài', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2415,17 +2403,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3db76400-46c0-4adb-9d9c-51542f2de2f9</t>
+          <t>545126c4-c319-4d90-a506-2627e3e232a0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-05-23T19:15:00.000Z</t>
+          <t>2024-06-05T05:44:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-05-28T15:24:00.000Z</t>
+          <t>2024-07-02T17:16:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2438,7 +2426,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Pen-Design-3db7640046c04adb9d9c51542f2de2f9</t>
+          <t>https://www.notion.so/B-c-S-Ngo-i-545126c4c3194d90a5062627e3e232a0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2449,7 +2437,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2508,149 +2496,134 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>7b471659-968e-4223-a416-2ea11902750b</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Kỹ thuật viên</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>\[^V</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>Chính thức</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Ngoài', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>;;Tu</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM9" t="n">
-        <v>33</v>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA9" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Pen Design ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Pen Design ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr">
-        <is>
-          <t>2023-12-01</t>
-        </is>
-      </c>
+      <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2660,17 +2633,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389</t>
+          <t>3db76400-46c0-4adb-9d9c-51542f2de2f9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-05-22T12:32:00.000Z</t>
+          <t>2024-05-23T19:15:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-02T17:15:00.000Z</t>
+          <t>2024-05-28T15:24:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2683,7 +2656,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/o-V-ng-Anh-3601e7b0a80d4dfdbfa10d34a0e7e389</t>
+          <t>https://www.notion.so/Pen-Design-3db7640046c04adb9d9c51542f2de2f9</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2694,7 +2667,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2740,7 +2713,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2753,153 +2726,150 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI10" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Pen Design ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Pen Design ', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AW10" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AX10" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AY10" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AZ10" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="BA10" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>Lj_l</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>0963316200</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA10" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đào Vương Anh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đào Vương Anh', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr">
-        <is>
-          <t>2024-02-01</t>
-        </is>
-      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
       <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2909,7 +2879,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>e49d0ce3-124d-4e4b-b377-be2139cde3f5</t>
+          <t>3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2932,7 +2902,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-Ho-ng-Ph-e49d0ce3124d4e4bb377be2139cde3f5</t>
+          <t>https://www.notion.so/o-V-ng-Anh-3601e7b0a80d4dfdbfa10d34a0e7e389</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2989,7 +2959,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -3002,149 +2972,154 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0963316200</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Đào Vương Anh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đào Vương Anh', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AW11" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AX11" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AY11" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AZ11" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="BA11" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lâm Hoàng Phú', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Hoàng Phú', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
       <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3154,17 +3129,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6454d5e5-8a20-473b-a597-dc1973dd1e0e</t>
+          <t>e49d0ce3-124d-4e4b-b377-be2139cde3f5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-05-17T14:53:00.000Z</t>
+          <t>2024-05-22T12:32:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-05-28T15:23:00.000Z</t>
+          <t>2024-07-02T17:15:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -3177,7 +3152,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-Si-ng-gi-p-Vi-c-6454d5e58a20473ba597dc1973dd1e0e</t>
+          <t>https://www.notion.so/L-m-Ho-ng-Ph-e49d0ce3124d4e4bb377be2139cde3f5</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -3188,7 +3163,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -3234,7 +3209,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3247,149 +3222,150 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
-        </is>
-      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Nhân viên hậu cần</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>brown</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Lâm Hoàng Phú', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Hoàng Phú', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>7b471659-968e-4223-a416-2ea11902750b</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Kỹ thuật viên</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AZ12" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="BA12" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW12" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ12" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA12" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cô Siêng giúp Việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Siêng giúp Việc', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr">
-        <is>
-          <t>2023-12-01</t>
-        </is>
-      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
       <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3399,17 +3375,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3fac4a49-402c-4d34-aa91-419ebc20760c</t>
+          <t>6454d5e5-8a20-473b-a597-dc1973dd1e0e</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-05-17T14:52:00.000Z</t>
+          <t>2024-05-17T14:53:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-02T17:20:00.000Z</t>
+          <t>2024-05-28T15:23:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3422,7 +3398,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Tr-n-Kh-nh-Hi-p-3fac4a49402c4d34aa91419ebc20760c</t>
+          <t>https://www.notion.so/C-Si-ng-gi-p-Vi-c-6454d5e58a20473ba597dc1973dd1e0e</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3479,7 +3455,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3492,153 +3468,150 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
-        </is>
-      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Sale &amp; Lễ Tân</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Cô Siêng giúp Việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Siêng giúp Việc', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Nhân viên hậu cần</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>\[^V</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>Chính thức</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>\[^V</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>Chính thức</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>0386381682</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA13" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Trần Khánh Hiệp', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trần Khánh Hiệp', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr">
-        <is>
-          <t>2023-12-01</t>
-        </is>
-      </c>
+      <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="inlineStr"/>
       <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
       <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3648,12 +3621,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>d1ae645f-f3dd-46cd-a715-a8c150605da6</t>
+          <t>3fac4a49-402c-4d34-aa91-419ebc20760c</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-05-13T09:27:00.000Z</t>
+          <t>2024-05-17T14:52:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3671,7 +3644,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-Ho-ng-Thanh-d1ae645ff3dd46cda715a8c150605da6</t>
+          <t>https://www.notion.so/Tr-n-Kh-nh-Hi-p-3fac4a49402c4d34aa91419ebc20760c</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3728,7 +3701,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -3741,153 +3714,154 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>0386381682</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Trần Khánh Hiệp', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trần Khánh Hiệp', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AW14" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AX14" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AY14" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AZ14" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="BA14" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>Lj_l</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AS14" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>0988302615</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Hoàng Thanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Hoàng Thanh', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr">
-        <is>
-          <t>2024-02-01</t>
-        </is>
-      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
       <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
       <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3897,12 +3871,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>e926d62c-e624-4663-9009-c562ae5166cf</t>
+          <t>d1ae645f-f3dd-46cd-a715-a8c150605da6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-05-13T08:12:00.000Z</t>
+          <t>2024-05-13T09:27:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3920,7 +3894,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Nguy-n-Ph-c-Nam-e926d62ce62446639009c562ae5166cf</t>
+          <t>https://www.notion.so/L-Ho-ng-Thanh-d1ae645ff3dd46cda715a8c150605da6</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3977,7 +3951,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Huế', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Huế', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3990,153 +3964,154 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
-        </is>
-      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Quản trị viên</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>?Jwa</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>Quản trị cơ sở</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>kDDv</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM15" t="n">
-        <v>22</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>0988302615</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Hoàng Thanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Hoàng Thanh', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Sale &amp; Lễ Tân</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>\[^V</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>Chính thức</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="BC15" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="BD15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>0982136861</t>
-        </is>
-      </c>
-      <c r="AV15" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW15" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ15" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA15" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Phúc Nam', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Phúc Nam', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
-        </is>
-      </c>
+      <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="inlineStr"/>
       <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
       <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4146,17 +4121,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
+          <t>e926d62c-e624-4663-9009-c562ae5166cf</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-05-13T05:42:00.000Z</t>
+          <t>2024-05-13T08:12:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-05-28T15:23:00.000Z</t>
+          <t>2024-07-02T17:20:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -4169,7 +4144,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/CTV-Ngo-i-7bb857c9f973440b88f297e138ee6082</t>
+          <t>https://www.notion.so/Nguy-n-Ph-c-Nam-e926d62ce62446639009c562ae5166cf</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -4226,7 +4201,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Huế', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Huế', 'href': None}]</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -4239,145 +4214,154 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>\[^V</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>Chính thức</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>kDDv</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI16" t="n">
+        <v>22</v>
+      </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM16" t="n">
-        <v>20</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>0982136861</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>x%7BZK</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>tSw%40</t>
+          <t>title</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU16" t="inlineStr"/>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Phúc Nam', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Phúc Nam', 'href': None}]</t>
+        </is>
+      </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX16" t="inlineStr"/>
+          <t>Quản trị viên</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>?Jwa</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Quản trị cơ sở</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'CTV Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'CTV Ngoài', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>2023-05-01</t>
+        </is>
+      </c>
       <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4387,17 +4371,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3d301dfe-6e3d-4d28-a249-1fd5fac9abd3</t>
+          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-05-12T18:07:00.000Z</t>
+          <t>2024-05-13T05:42:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-02T17:20:00.000Z</t>
+          <t>2024-05-28T15:23:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -4410,7 +4394,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Kha-Nh-Hu-nh-3d301dfe6e3d4d28a2491fd5fac9abd3</t>
+          <t>https://www.notion.so/CTV-Ngo-i-7bb857c9f973440b88f297e138ee6082</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -4467,7 +4451,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Phụng Hiệp - Hậu Giang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phụng Hiệp - Hậu Giang', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -4480,153 +4464,146 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Sale &amp; Lễ Tân</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'CTV Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'CTV Ngoài', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AZ17" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="BA17" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>0907058203</t>
-        </is>
-      </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ17" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA17" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Kha Như Huỳnh ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Kha Như Huỳnh ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr">
-        <is>
-          <t>2023-11-01</t>
-        </is>
-      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>;;Tu</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4636,17 +4613,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>b9c67786-5d99-45c1-85d7-f96bfb66ef22</t>
+          <t>3d301dfe-6e3d-4d28-a249-1fd5fac9abd3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-05-10T10:27:00.000Z</t>
+          <t>2024-05-12T18:07:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-05-28T15:20:00.000Z</t>
+          <t>2024-07-02T17:20:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4659,7 +4636,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Tr-ng-L-m-Khanh-b9c677865d9945c185d7f96bfb66ef22</t>
+          <t>https://www.notion.so/Kha-Nh-Hu-nh-3d301dfe6e3d4d28a2491fd5fac9abd3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4716,7 +4693,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên- Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên- Sóc Trăng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Phụng Hiệp - Hậu Giang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phụng Hiệp - Hậu Giang', 'href': None}]</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -4729,153 +4706,154 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Nhân viên hậu cần</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>brown</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>0907058203</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Kha Như Huỳnh ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Kha Như Huỳnh ', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Sale &amp; Lễ Tân</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AZ18" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="BA18" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU18" t="inlineStr">
-        <is>
-          <t>0799609322</t>
-        </is>
-      </c>
-      <c r="AV18" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW18" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ18" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA18" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Trương Lâm Khanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trương Lâm Khanh', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
-      <c r="BE18" t="inlineStr">
-        <is>
-          <t>2024-02-15</t>
-        </is>
-      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="inlineStr"/>
       <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
       <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4885,17 +4863,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>f973382b-037a-4eb1-84bc-e9e5318184b8</t>
+          <t>b9c67786-5d99-45c1-85d7-f96bfb66ef22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-05-10T09:45:00.000Z</t>
+          <t>2024-05-10T10:27:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-02T17:20:00.000Z</t>
+          <t>2024-05-28T15:20:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4908,7 +4886,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Th-Huy-n-Tr-n-f973382b037a4eb184bce9e5318184b8</t>
+          <t>https://www.notion.so/Tr-ng-L-m-Khanh-b9c677865d9945c185d7f96bfb66ef22</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4965,7 +4943,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên - Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên - Sóc Trăng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên- Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên- Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -4978,153 +4956,154 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
-        </is>
-      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Sale &amp; Lễ Tân</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>0799609322</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Trương Lâm Khanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trương Lâm Khanh', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Nhân viên hậu cần</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AZ19" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="BA19" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
+      <c r="BB19" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="BC19" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="BD19" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>0912931220</t>
-        </is>
-      </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW19" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ19" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA19" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đỗ Thị Huyền Trân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Thị Huyền Trân', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr">
-        <is>
-          <t>2024-02-15</t>
-        </is>
-      </c>
+      <c r="BE19" t="inlineStr"/>
       <c r="BF19" t="inlineStr"/>
       <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
       <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5134,12 +5113,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>c463b1a9-4fb2-4258-87a7-44193ba02405</t>
+          <t>f973382b-037a-4eb1-84bc-e9e5318184b8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-05-10T09:41:00.000Z</t>
+          <t>2024-05-10T09:45:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5157,7 +5136,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-nh-H-u-c463b1a94fb2425887a744193ba02405</t>
+          <t>https://www.notion.so/Th-Huy-n-Tr-n-f973382b037a4eb184bce9e5318184b8</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -5214,7 +5193,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Ngọc Lặc - Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Ngọc Lặc - Thanh Hoá', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên - Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên - Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -5227,153 +5206,154 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>0912931220</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Đỗ Thị Huyền Trân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Thị Huyền Trân', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AW20" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AX20" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>?Jwa</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>Quản trị cơ sở</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AS20" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU20" t="inlineStr">
-        <is>
-          <t>0879533217</t>
-        </is>
-      </c>
-      <c r="AV20" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW20" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>\[^V</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Chính thức</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Đình Hậu', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Đình Hậu', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
-      <c r="BE20" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr"/>
       <c r="BF20" t="inlineStr"/>
       <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
       <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5383,17 +5363,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7e29a9ca-b017-4ad6-a6b0-6ed9330137bc</t>
+          <t>c463b1a9-4fb2-4258-87a7-44193ba02405</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-05-10T09:38:00.000Z</t>
+          <t>2024-05-10T09:41:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-05-23T19:56:00.000Z</t>
+          <t>2024-07-02T17:20:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -5406,7 +5386,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-V-n-Linh-7e29a9cab0174ad6a6b06ed9330137bc</t>
+          <t>https://www.notion.so/L-nh-H-u-c463b1a94fb2425887a744193ba02405</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -5463,7 +5443,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Ngọc Lặc - Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Ngọc Lặc - Thanh Hoá', 'href': None}]</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -5476,149 +5456,154 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
-        </is>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Quản lý vận hành</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>]EdZ</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>Quản trị cấp cao</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>kDDv</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI21" t="n">
+        <v>10</v>
+      </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM21" t="n">
-        <v>9</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>0879533217</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>KqT_</t>
+          <t>x%7BZK</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>tSw%40</t>
+          <t>title</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU21" t="inlineStr"/>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Đình Hậu', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Đình Hậu', 'href': None}]</t>
+        </is>
+      </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX21" t="inlineStr"/>
+          <t>Sale &amp; Lễ Tân</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>?Jwa</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Quản trị cơ sở</t>
         </is>
       </c>
       <c r="BA21" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Văn Linh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Văn Linh', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
-      <c r="BE21" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr"/>
       <c r="BF21" t="inlineStr"/>
       <c r="BG21" t="inlineStr"/>
-      <c r="BH21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
       <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5628,17 +5613,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+          <t>7e29a9ca-b017-4ad6-a6b0-6ed9330137bc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-05-10T09:35:00.000Z</t>
+          <t>2024-05-10T09:38:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-05-25T10:55:00.000Z</t>
+          <t>2024-05-23T19:56:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -5651,7 +5636,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ph-m-Thanh-Ho-ng-a73ea60d3de14e9baa7bf22fda5742bd</t>
+          <t>https://www.notion.so/L-V-n-Linh-7e29a9cab0174ad6a6b06ed9330137bc</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -5721,149 +5706,150 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
-        </is>
-      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Văn Linh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Văn Linh', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Quản lý vận hành</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>]EdZ</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>Quản trị cấp cao</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>gray</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>\[^V</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>Chính thức</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ22" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA22" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Phạm Thanh Hoàng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phạm Thanh Hoàng', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="inlineStr"/>
-      <c r="BE22" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
+      <c r="BE22" t="inlineStr"/>
       <c r="BF22" t="inlineStr"/>
       <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
       <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5873,17 +5859,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-05-10T09:31:00.000Z</t>
+          <t>2024-05-10T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-05-25T10:48:00.000Z</t>
+          <t>2024-05-25T10:55:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5896,7 +5882,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-Th-M-H-ng-bc9b2b6b314044b9a1be4dc8e77d8898</t>
+          <t>https://www.notion.so/Ph-m-Thanh-Ho-ng-a73ea60d3de14e9baa7bf22fda5742bd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5966,149 +5952,150 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
-        </is>
-      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Quản lý vận hành</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>]EdZ</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>Quản trị cấp cao</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>kDDv</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI23" t="n">
+        <v>7</v>
+      </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM23" t="n">
-        <v>6</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Phạm Thanh Hoàng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phạm Thanh Hoàng', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>\[^V</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>Chính thức</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="BC23" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="BD23" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW23" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ23" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA23" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Mỹ Hằng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Mỹ Hằng', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="inlineStr"/>
-      <c r="BE23" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
+      <c r="BE23" t="inlineStr"/>
       <c r="BF23" t="inlineStr"/>
       <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
       <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6118,17 +6105,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>75046948-a198-4627-89b3-3bbf5967526b</t>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-05-10T09:29:00.000Z</t>
+          <t>2024-05-10T09:31:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-05-28T15:17:00.000Z</t>
+          <t>2024-05-25T10:48:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -6141,7 +6128,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Nguy-n-Ho-ng-Y-n-Quy-n-75046948a198462789b33bbf5967526b</t>
+          <t>https://www.notion.so/L-m-Th-M-H-ng-bc9b2b6b314044b9a1be4dc8e77d8898</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -6198,7 +6185,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Vĩnh Long', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Vĩnh Long', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -6211,157 +6198,150 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
-        </is>
-      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Quản trị viên</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>?Jwa</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>Quản trị cơ sở</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>kDDv</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI24" t="n">
+        <v>6</v>
+      </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM24" t="n">
-        <v>5</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Mỹ Hằng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Mỹ Hằng', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Quản lý vận hành</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>]EdZ</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>Quản trị cấp cao</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>gray</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="BC24" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="BD24" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT24" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU24" t="inlineStr">
-        <is>
-          <t>0898833566</t>
-        </is>
-      </c>
-      <c r="AV24" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW24" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ24" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA24" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hoàng Yến Quyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hoàng Yến Quyên', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB24" t="inlineStr">
-        <is>
-          <t>2002-08-15</t>
-        </is>
-      </c>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr"/>
-      <c r="BE24" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
+      <c r="BE24" t="inlineStr"/>
       <c r="BF24" t="inlineStr"/>
       <c r="BG24" t="inlineStr"/>
-      <c r="BH24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
       <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6371,17 +6351,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
+          <t>75046948-a198-4627-89b3-3bbf5967526b</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-05-10T09:17:00.000Z</t>
+          <t>2024-05-10T09:29:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-05-23T18:36:00.000Z</t>
+          <t>2024-05-28T15:17:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -6394,7 +6374,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Th-ch-Ho-ng-Nh-n-cca1354dd5854e098845dc6dadbcb631</t>
+          <t>https://www.notion.so/Nguy-n-Ho-ng-Y-n-Quy-n-75046948a198462789b33bbf5967526b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -6451,7 +6431,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Vĩnh Long', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Vĩnh Long', 'href': None}]</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -6464,145 +6444,158 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
-        </is>
-      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>\[^V</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>Chính thức</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>kDDv</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI25" t="n">
+        <v>5</v>
+      </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM25" t="n">
-        <v>4</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>0898833566</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>x%7BZK</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
-        </is>
-      </c>
-      <c r="AR25" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>tSw%40</t>
+          <t>title</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU25" t="inlineStr"/>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hoàng Yến Quyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hoàng Yến Quyên', 'href': None}]</t>
+        </is>
+      </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX25" t="inlineStr"/>
+          <t>Quản trị viên</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>?Jwa</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Quản trị cơ sở</t>
         </is>
       </c>
       <c r="BA25" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thạch Hoàng Nhân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thạch Hoàng Nhân', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr"/>
-      <c r="BE25" t="inlineStr"/>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>2002-08-15</t>
+        </is>
+      </c>
       <c r="BF25" t="inlineStr"/>
       <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
       <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6612,17 +6605,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7355dc08-dad8-4f32-a691-2cbf92f70ca5</t>
+          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-05-08T05:30:00.000Z</t>
+          <t>2024-05-10T09:17:00.000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-02T18:01:00.000Z</t>
+          <t>2024-05-23T18:36:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -6635,7 +6628,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-n-H-i-7355dc08dad84f32a6912cbf92f70ca5</t>
+          <t>https://www.notion.so/Th-ch-Ho-ng-Nh-n-cca1354dd5854e098845dc6dadbcb631</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -6646,7 +6639,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -6692,7 +6685,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Hà Nội', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hà Nội', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -6705,161 +6698,146 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>7b471659-968e-4223-a416-2ea11902750b</t>
-        </is>
-      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Kỹ thuật viên</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Thạch Hoàng Nhân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thạch Hoàng Nhân', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AZ26" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="BA26" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr">
+      <c r="BB26" t="inlineStr">
         <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="BC26" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="BD26" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AS26" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT26" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU26" t="inlineStr">
-        <is>
-          <t>0386756091</t>
-        </is>
-      </c>
-      <c r="AV26" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW26" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX26" t="inlineStr">
-        <is>
-          <t>hai.mda01@gmail.com</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ26" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA26" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đỗ Tiến Hải', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Tiến Hải', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB26" t="inlineStr">
-        <is>
-          <t>2001-11-02</t>
-        </is>
-      </c>
-      <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="inlineStr"/>
-      <c r="BE26" t="inlineStr">
-        <is>
-          <t>2024-05-01</t>
-        </is>
-      </c>
+      <c r="BE26" t="inlineStr"/>
       <c r="BF26" t="inlineStr"/>
       <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="inlineStr"/>
       <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6869,7 +6847,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bdc3e2cc-c23d-4849-9b9b-ae1443a4cfca</t>
+          <t>7355dc08-dad8-4f32-a691-2cbf92f70ca5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6892,7 +6870,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Nguy-n-H-u-Quang-bdc3e2ccc23d48499b9bae1443a4cfca</t>
+          <t>https://www.notion.so/Ti-n-H-i-7355dc08dad84f32a6912cbf92f70ca5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -6962,161 +6940,420 @@
           <t>select</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
-        </is>
-      </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Quản lý vận hành</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>jr%3F%3A</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>dux}</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>Quản trị cấp trung</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>kDDv</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>unique_id</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr"/>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI27" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>kDDv</t>
+          <t>nWf%3D</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AM27" t="n">
-        <v>2</v>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>nWf%3D</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>0386756091</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>hai.mda01@gmail.com</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Đỗ Tiến Hải', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Tiến Hải', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>7b471659-968e-4223-a416-2ea11902750b</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Kỹ thuật viên</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>\[^V</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>Chính thức</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="BC27" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="BD27" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AT27" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AU27" t="inlineStr">
-        <is>
-          <t>0326665814</t>
-        </is>
-      </c>
-      <c r="AV27" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AW27" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AX27" t="inlineStr">
-        <is>
-          <t>manager.clozhcraft@gmail.com</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ27" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BA27" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hữu Quang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hữu Quang', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BB27" t="inlineStr">
-        <is>
-          <t>2001-08-23</t>
-        </is>
-      </c>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr"/>
       <c r="BE27" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2001-11-02</t>
         </is>
       </c>
       <c r="BF27" t="inlineStr"/>
       <c r="BG27" t="inlineStr"/>
-      <c r="BH27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
       <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>bdc3e2cc-c23d-4849-9b9b-ae1443a4cfca</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-05-08T05:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024-07-02T18:01:00.000Z</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/Nguy-n-H-u-Quang-bdc3e2ccc23d48499b9bae1443a4cfca</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>3213b32a-e230-44e2-afdd-04abcc992e96</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>%3AtZ%5B</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>%3Eb%60D</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>rich_text</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Hà Nội', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hà Nội', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>LgyH</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AI28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>0326665814</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>manager.clozhcraft@gmail.com</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hữu Quang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hữu Quang', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Quản lý vận hành</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>dux}</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>Quản trị cấp trung</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>;;Tu</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>2001-08-23</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notion_data/HO_SO_NHAN_SU.xlsx
+++ b/notion_data/HO_SO_NHAN_SU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ28"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,185 +561,215 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>properties.Hình thức làm việc.id</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Hình thức làm việc.type</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Hình thức làm việc.select</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>properties.Phân cấp.id</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.type</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.id</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.type</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.id</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.type</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.unique_id.prefix</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.unique_id.number</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.id</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.type</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.id</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.phone_number</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.id</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.type</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.email</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.id</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.type</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.title</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.id</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.name</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.color</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Hình thức làm việc.select.id</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Hình thức làm việc.select.name</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Hình thức làm việc.select.color</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.id</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.name</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.color</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.id</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.name</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.color</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.start</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.end</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.time_zone</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.start</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.end</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.time_zone</t>
         </is>
@@ -753,17 +783,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>da161f60-6bcb-435e-b35f-98dc582352bd</t>
+          <t>ad82673f-3f9f-4e02-a65d-a97c60514f2e</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-06T15:57:00.000Z</t>
+          <t>2024-07-15T08:59:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-06T15:57:00.000Z</t>
+          <t>2024-07-15T08:59:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -776,7 +806,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/huynh-da161f606bcb435eb35f98dc582352bd</t>
+          <t>https://www.notion.so/530-ad82673f3f9f4e02a65da97c60514f2e</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -787,7 +817,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -797,7 +827,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -849,7 +879,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -860,84 +890,92 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AL2" t="n">
+        <v>43</v>
+      </c>
+      <c r="AM2" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>tSw%40</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'huynh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'huynh', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '530', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '530', 'href': None}]</t>
+        </is>
+      </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
@@ -950,6 +988,12 @@
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -959,17 +1003,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>d8178da7-a5cc-474f-9c6e-ed3029f89c4d</t>
+          <t>35f44955-2223-488a-8274-8db6f726d9f7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-02T17:59:00.000Z</t>
+          <t>2024-07-10T03:16:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-02T18:00:00.000Z</t>
+          <t>2024-07-10T03:16:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -982,7 +1026,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Sang-sang-d8178da7a5cc474f9c6eed3029f89c4d</t>
+          <t>https://www.notion.so/C-Na-gi-p-vi-c-35f449552223488a82748db6f726d9f7</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -993,7 +1037,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1003,7 +1047,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1055,7 +1099,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1066,132 +1110,110 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AL3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM3" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>tSw%40</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Sang sang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sang sang', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>Sale &amp; Lễ Tân</t>
-        </is>
-      </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>|HxR</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>Thử việc</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>Lj_l</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
+          <t>[{'type': 'text', 'text': {'content': 'Cô Na giúp việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Na giúp việc', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1201,17 +1223,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ea0572af-f8c9-430d-9d95-23303a4ce4cd</t>
+          <t>d8178da7-a5cc-474f-9c6e-ed3029f89c4d</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-02T17:24:00.000Z</t>
+          <t>2024-07-02T17:59:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-02T17:27:00.000Z</t>
+          <t>2024-07-08T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1224,7 +1246,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/La-Th-Ng-c-H-My-ea0572aff8c9430d9d9523303a4ce4cd</t>
+          <t>https://www.notion.so/Sang-sang-d8178da7a5cc474f9c6eed3029f89c4d</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1281,7 +1303,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1297,7 +1319,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1308,140 +1330,158 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI4" t="n">
-        <v>39</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AL4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>tSw%40</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'La Thị Ngọc Hà My ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'La Thị Ngọc Hà My ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Sang sang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sang sang', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>x&gt;Ke</t>
-        </is>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>Học việc</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>KqT_</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>green</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>1998-01-01</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="inlineStr"/>
+          <t>|HxR</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Thử việc</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
+          <t>Lj_l</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1451,17 +1491,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>90bc02c2-bd1e-4c33-884a-38a1db528c78</t>
+          <t>ea0572af-f8c9-430d-9d95-23303a4ce4cd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-02T17:18:00.000Z</t>
+          <t>2024-07-02T17:24:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-02T17:23:00.000Z</t>
+          <t>2024-07-08T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1474,7 +1514,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-Th-Ng-c-Mi-90bc02c2bd1e4c33884a38a1db528c78</t>
+          <t>https://www.notion.so/La-Th-Ng-c-H-My-ea0572aff8c9430d9d9523303a4ce4cd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1531,7 +1571,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'href': None}]</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1547,7 +1587,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1558,144 +1598,166 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AL5" t="n">
+        <v>39</v>
+      </c>
+      <c r="AM5" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0852169606</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>email</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Thị Ngọc Mi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Thị Ngọc Mi', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'La Thị Ngọc Hà My ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'La Thị Ngọc Hà My ', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>|HxR</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>Thử việc</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>VWB;</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>green</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2004-01-13</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
+          <t>x&gt;Ke</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>Học việc</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>1998-01-01</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1705,17 +1767,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>049e08c7-01e5-4ac6-bb22-4d52622559f1</t>
+          <t>90bc02c2-bd1e-4c33-884a-38a1db528c78</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-17T17:35:00.000Z</t>
+          <t>2024-07-02T17:18:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-02T17:16:00.000Z</t>
+          <t>2024-07-08T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1728,7 +1790,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/B-c-S-Th-o-049e08c701e54ac6bb224d52622559f1</t>
+          <t>https://www.notion.so/L-Th-Ng-c-Mi-90bc02c2bd1e4c33884a38a1db528c78</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1801,7 +1863,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1812,120 +1874,170 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AL6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM6" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>0852169606</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr">
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AW6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Thảo', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Thảo', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Thị Ngọc Mi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Thị Ngọc Mi', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>Sale &amp; Lễ Tân</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>|HxR</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>Thử việc</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>2004-01-13</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1935,17 +2047,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>467f676f-8f46-49b5-afea-feecb0794d23</t>
+          <t>049e08c7-01e5-4ac6-bb22-4d52622559f1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-16T09:45:00.000Z</t>
+          <t>2024-06-17T17:35:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-06-29T21:00:00.000Z</t>
+          <t>2024-07-08T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1958,7 +2070,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ng-Ng-c-Mai-467f676f8f4649b5afeafeecb0794d23</t>
+          <t>https://www.notion.so/B-c-S-Th-o-049e08c701e54ac6bb224d52622559f1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -2015,7 +2127,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Hưng yên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hưng yên', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2031,7 +2143,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2042,140 +2154,146 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AL7" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM7" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>tSw%40</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AW7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đặng Ngọc Mai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đặng Ngọc Mai', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>7b471659-968e-4223-a416-2ea11902750b</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>Kỹ thuật viên</t>
-        </is>
-      </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Thảo', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Thảo', 'href': None}]</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>|HxR</t>
+          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>Thử việc</t>
+          <t>Bác sĩ</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>Lj_l</t>
+          <t>GL=j</t>
         </is>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>2005-01-18</t>
-        </is>
-      </c>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
+          <t>;;Tu</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2185,17 +2303,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>e0ac0375-0b3a-4c88-a613-cb8df33ebe6b</t>
+          <t>467f676f-8f46-49b5-afea-feecb0794d23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-05T12:48:00.000Z</t>
+          <t>2024-06-16T09:45:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-02T18:02:00.000Z</t>
+          <t>2024-07-08T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2208,7 +2326,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-Th-H-ng-e0ac03750b3a4c88a613cb8df33ebe6b</t>
+          <t>https://www.notion.so/ng-Ng-c-Mai-467f676f8f4649b5afeafeecb0794d23</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2219,7 +2337,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -2265,7 +2383,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Hưng yên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hưng yên', 'href': None}]</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2281,7 +2399,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2292,108 +2410,166 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI8" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AL8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM8" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>tSw%40</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AW8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Hường', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Hường', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Đặng Ngọc Mai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đặng Ngọc Mai', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>7b471659-968e-4223-a416-2ea11902750b</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>Kỹ thuật viên</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>|HxR</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>Thử việc</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>2005-01-18</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2403,17 +2579,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>545126c4-c319-4d90-a506-2627e3e232a0</t>
+          <t>e0ac0375-0b3a-4c88-a613-cb8df33ebe6b</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-05T05:44:00.000Z</t>
+          <t>2024-06-05T12:48:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-02T17:16:00.000Z</t>
+          <t>2024-07-08T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2426,7 +2602,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/B-c-S-Ngo-i-545126c4c3194d90a5062627e3e232a0</t>
+          <t>https://www.notion.so/L-m-Th-H-ng-e0ac03750b3a4c88a613cb8df33ebe6b</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2437,7 +2613,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2499,7 +2675,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2510,94 +2686,90 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AL9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM9" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>tSw%40</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr">
+      <c r="AW9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Ngoài', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
-        </is>
-      </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Hường', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Hường', 'href': None}]</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
@@ -2605,25 +2777,43 @@
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>green</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2633,17 +2823,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3db76400-46c0-4adb-9d9c-51542f2de2f9</t>
+          <t>545126c4-c319-4d90-a506-2627e3e232a0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-05-23T19:15:00.000Z</t>
+          <t>2024-06-05T05:44:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-05-28T15:24:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2656,7 +2846,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Pen-Design-3db7640046c04adb9d9c51542f2de2f9</t>
+          <t>https://www.notion.so/B-c-S-Ngo-i-545126c4c3194d90a5062627e3e232a0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2667,7 +2857,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2729,7 +2919,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2740,124 +2930,120 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI10" t="n">
-        <v>33</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>tSw%40</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AW10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Pen Design ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Pen Design ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>7b471659-968e-4223-a416-2ea11902750b</t>
-        </is>
-      </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>Kỹ thuật viên</t>
-        </is>
-      </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Ngoài', 'href': None}]</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>\[^V</t>
+          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>Chính thức</t>
+          <t>Bác sĩ</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>KqT_</t>
+          <t>GL=j</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr"/>
@@ -2865,11 +3051,25 @@
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
-        </is>
-      </c>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
+          <t>;;Tu</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2879,17 +3079,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389</t>
+          <t>3db76400-46c0-4adb-9d9c-51542f2de2f9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-05-22T12:32:00.000Z</t>
+          <t>2024-05-23T19:15:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-02T17:15:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2902,7 +3102,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/o-V-ng-Anh-3601e7b0a80d4dfdbfa10d34a0e7e389</t>
+          <t>https://www.notion.so/Pen-Design-3db7640046c04adb9d9c51542f2de2f9</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2913,7 +3113,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2959,7 +3159,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2975,7 +3175,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2986,140 +3186,162 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AL11" t="n">
+        <v>33</v>
+      </c>
+      <c r="AM11" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0963316200</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>email</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AW11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đào Vương Anh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đào Vương Anh', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Pen Design ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Pen Design ', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AW11" t="inlineStr">
+      <c r="AZ11" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
+      <c r="BA11" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="AY11" t="inlineStr">
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>GL=j</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
+      <c r="BF11" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BA11" t="inlineStr">
+      <c r="BG11" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr">
-        <is>
-          <t>Lj_l</t>
-        </is>
-      </c>
-      <c r="BC11" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
-        </is>
-      </c>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3129,7 +3351,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>e49d0ce3-124d-4e4b-b377-be2139cde3f5</t>
+          <t>3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3139,7 +3361,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-02T17:15:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -3152,7 +3374,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-Ho-ng-Ph-e49d0ce3124d4e4bb377be2139cde3f5</t>
+          <t>https://www.notion.so/o-V-ng-Anh-3601e7b0a80d4dfdbfa10d34a0e7e389</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -3209,7 +3431,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3225,7 +3447,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -3236,136 +3458,166 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AL12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM12" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>0963316200</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr">
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AW12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lâm Hoàng Phú', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Hoàng Phú', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Đào Vương Anh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đào Vương Anh', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AW12" t="inlineStr">
+      <c r="AZ12" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr">
+      <c r="BA12" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="AY12" t="inlineStr">
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
+      <c r="BF12" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr">
+      <c r="BG12" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BC12" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BD12" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr"/>
+          <t>Lj_l</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3375,17 +3627,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6454d5e5-8a20-473b-a597-dc1973dd1e0e</t>
+          <t>e49d0ce3-124d-4e4b-b377-be2139cde3f5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-05-17T14:53:00.000Z</t>
+          <t>2024-05-22T12:32:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-05-28T15:23:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3398,7 +3650,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-Si-ng-gi-p-Vi-c-6454d5e58a20473ba597dc1973dd1e0e</t>
+          <t>https://www.notion.so/L-m-Ho-ng-Ph-e49d0ce3124d4e4bb377be2139cde3f5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3409,7 +3661,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -3455,7 +3707,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3471,7 +3723,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -3482,136 +3734,162 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>tSw%40</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AW13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cô Siêng giúp Việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Siêng giúp Việc', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
-        </is>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>Nhân viên hậu cần</t>
-        </is>
-      </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lâm Hoàng Phú', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Hoàng Phú', 'href': None}]</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
+          <t>7b471659-968e-4223-a416-2ea11902750b</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>Kỹ thuật viên</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
+      <c r="BF13" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BA13" t="inlineStr">
+      <c r="BG13" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="BC13" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="BD13" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
-        </is>
-      </c>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3621,17 +3899,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3fac4a49-402c-4d34-aa91-419ebc20760c</t>
+          <t>6454d5e5-8a20-473b-a597-dc1973dd1e0e</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-05-17T14:52:00.000Z</t>
+          <t>2024-05-17T14:53:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-02T17:20:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3644,7 +3922,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Tr-n-Kh-nh-Hi-p-3fac4a49402c4d34aa91419ebc20760c</t>
+          <t>https://www.notion.so/C-Si-ng-gi-p-Vi-c-6454d5e58a20473ba597dc1973dd1e0e</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3701,7 +3979,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -3717,7 +3995,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -3728,140 +4006,162 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AL14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM14" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>0386381682</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>email</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AW14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Trần Khánh Hiệp', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trần Khánh Hiệp', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
-        </is>
-      </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>Sale &amp; Lễ Tân</t>
-        </is>
-      </c>
       <c r="AX14" t="inlineStr">
         <is>
+          <t>[{'type': 'text', 'text': {'content': 'Cô Siêng giúp Việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Siêng giúp Việc', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>Nhân viên hậu cần</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>\[^V</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>Chính thức</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>\[^V</t>
-        </is>
-      </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>Chính thức</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="BB14" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr">
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3871,17 +4171,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>d1ae645f-f3dd-46cd-a715-a8c150605da6</t>
+          <t>3fac4a49-402c-4d34-aa91-419ebc20760c</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-05-13T09:27:00.000Z</t>
+          <t>2024-05-17T14:52:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-02T17:20:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3894,7 +4194,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-Ho-ng-Thanh-d1ae645ff3dd46cda715a8c150605da6</t>
+          <t>https://www.notion.so/Tr-n-Kh-nh-Hi-p-3fac4a49402c4d34aa91419ebc20760c</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3951,7 +4251,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3967,7 +4267,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3978,140 +4278,166 @@
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>0988302615</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>0386381682</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr">
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AW15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Hoàng Thanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Hoàng Thanh', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV15" t="inlineStr">
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Trần Khánh Hiệp', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trần Khánh Hiệp', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AW15" t="inlineStr">
+      <c r="AZ15" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AX15" t="inlineStr">
+      <c r="BA15" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AY15" t="inlineStr">
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AZ15" t="inlineStr">
+      <c r="BF15" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BA15" t="inlineStr">
+      <c r="BG15" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr">
-        <is>
-          <t>Lj_l</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="BD15" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
-        </is>
-      </c>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
+          <t>VWB;</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4121,17 +4447,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>e926d62c-e624-4663-9009-c562ae5166cf</t>
+          <t>d1ae645f-f3dd-46cd-a715-a8c150605da6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-05-13T08:12:00.000Z</t>
+          <t>2024-05-13T09:27:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-02T17:20:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -4144,7 +4470,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Nguy-n-Ph-c-Nam-e926d62ce62446639009c562ae5166cf</t>
+          <t>https://www.notion.so/L-Ho-ng-Thanh-d1ae645ff3dd46cda715a8c150605da6</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -4201,7 +4527,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Huế', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Huế', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -4217,7 +4543,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -4228,140 +4554,166 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM16" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>0982136861</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>0988302615</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr">
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AW16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Phúc Nam', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Phúc Nam', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV16" t="inlineStr">
-        <is>
-          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
-        </is>
-      </c>
-      <c r="AW16" t="inlineStr">
-        <is>
-          <t>Quản trị viên</t>
-        </is>
-      </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Hoàng Thanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Hoàng Thanh', 'href': None}]</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>?Jwa</t>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>Quản trị cơ sở</t>
+          <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>red</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>\[^V</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>Chính thức</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="BC16" t="inlineStr">
+      <c r="BI16" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="BD16" t="inlineStr">
+      <c r="BJ16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
-        </is>
-      </c>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4371,17 +4723,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
+          <t>e926d62c-e624-4663-9009-c562ae5166cf</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-05-13T05:42:00.000Z</t>
+          <t>2024-05-13T08:12:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-05-28T15:23:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -4394,7 +4746,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/CTV-Ngo-i-7bb857c9f973440b88f297e138ee6082</t>
+          <t>https://www.notion.so/Nguy-n-Ph-c-Nam-e926d62ce62446639009c562ae5166cf</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -4451,7 +4803,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Huế', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Huế', 'href': None}]</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -4467,7 +4819,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -4478,132 +4830,166 @@
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AL17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM17" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>0982136861</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr">
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
+      <c r="AW17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'CTV Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'CTV Ngoài', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
-        </is>
-      </c>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Phúc Nam', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Phúc Nam', 'href': None}]</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>\[^V</t>
+          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>Chính thức</t>
+          <t>Quản trị viên</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>?Jwa</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>Quản trị cơ sở</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>2023-05-01</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4613,17 +4999,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3d301dfe-6e3d-4d28-a249-1fd5fac9abd3</t>
+          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-05-12T18:07:00.000Z</t>
+          <t>2024-05-13T05:42:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-02T17:20:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4636,7 +5022,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Kha-Nh-Hu-nh-3d301dfe6e3d4d28a2491fd5fac9abd3</t>
+          <t>https://www.notion.so/CTV-Ngo-i-7bb857c9f973440b88f297e138ee6082</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4693,7 +5079,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Phụng Hiệp - Hậu Giang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phụng Hiệp - Hậu Giang', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -4709,7 +5095,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -4720,140 +5106,158 @@
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AL18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>0907058203</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>email</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AW18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Kha Như Huỳnh ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Kha Như Huỳnh ', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV18" t="inlineStr">
-        <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
-        </is>
-      </c>
-      <c r="AW18" t="inlineStr">
-        <is>
-          <t>Sale &amp; Lễ Tân</t>
-        </is>
-      </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>[{'type': 'text', 'text': {'content': 'CTV Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'CTV Ngoài', 'href': None}]</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
+          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>GL=j</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AZ18" t="inlineStr">
+      <c r="BF18" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BA18" t="inlineStr">
+      <c r="BG18" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="BC18" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="BD18" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
-        </is>
-      </c>
-      <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="inlineStr"/>
+          <t>;;Tu</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4863,17 +5267,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>b9c67786-5d99-45c1-85d7-f96bfb66ef22</t>
+          <t>3d301dfe-6e3d-4d28-a249-1fd5fac9abd3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-05-10T10:27:00.000Z</t>
+          <t>2024-05-12T18:07:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-05-28T15:20:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4886,7 +5290,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Tr-ng-L-m-Khanh-b9c677865d9945c185d7f96bfb66ef22</t>
+          <t>https://www.notion.so/Kha-Nh-Hu-nh-3d301dfe6e3d4d28a2491fd5fac9abd3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4943,7 +5347,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên- Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên- Sóc Trăng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Phụng Hiệp - Hậu Giang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phụng Hiệp - Hậu Giang', 'href': None}]</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -4959,7 +5363,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -4970,140 +5374,166 @@
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AL19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM19" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>0799609322</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>0907058203</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr">
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AW19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Trương Lâm Khanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trương Lâm Khanh', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
-        </is>
-      </c>
-      <c r="AW19" t="inlineStr">
-        <is>
-          <t>Nhân viên hậu cần</t>
-        </is>
-      </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>[{'type': 'text', 'text': {'content': 'Kha Như Huỳnh ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Kha Như Huỳnh ', 'href': None}]</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>Sale &amp; Lễ Tân</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AZ19" t="inlineStr">
+      <c r="BF19" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BA19" t="inlineStr">
+      <c r="BG19" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BD19" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
-        </is>
-      </c>
-      <c r="BI19" t="inlineStr"/>
-      <c r="BJ19" t="inlineStr"/>
+          <t>VWB;</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5113,17 +5543,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>f973382b-037a-4eb1-84bc-e9e5318184b8</t>
+          <t>b9c67786-5d99-45c1-85d7-f96bfb66ef22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-05-10T09:45:00.000Z</t>
+          <t>2024-05-10T10:27:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-02T17:20:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -5136,7 +5566,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Th-Huy-n-Tr-n-f973382b037a4eb184bce9e5318184b8</t>
+          <t>https://www.notion.so/Tr-ng-L-m-Khanh-b9c677865d9945c185d7f96bfb66ef22</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -5193,7 +5623,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên - Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên - Sóc Trăng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên- Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên- Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -5209,7 +5639,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -5220,140 +5650,166 @@
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AL20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM20" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>0912931220</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>0799609322</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr">
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AW20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đỗ Thị Huyền Trân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Thị Huyền Trân', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV20" t="inlineStr">
-        <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
-        </is>
-      </c>
-      <c r="AW20" t="inlineStr">
-        <is>
-          <t>Sale &amp; Lễ Tân</t>
-        </is>
-      </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>[{'type': 'text', 'text': {'content': 'Trương Lâm Khanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trương Lâm Khanh', 'href': None}]</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
+          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>Nhân viên hậu cần</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AZ20" t="inlineStr">
+      <c r="BF20" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BA20" t="inlineStr">
+      <c r="BG20" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB20" t="inlineStr">
+      <c r="BH20" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="BC20" t="inlineStr">
+      <c r="BI20" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BD20" t="inlineStr">
+      <c r="BJ20" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BE20" t="inlineStr"/>
-      <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr">
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr">
         <is>
           <t>2024-02-15</t>
         </is>
       </c>
-      <c r="BI20" t="inlineStr"/>
-      <c r="BJ20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5363,17 +5819,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>c463b1a9-4fb2-4258-87a7-44193ba02405</t>
+          <t>f973382b-037a-4eb1-84bc-e9e5318184b8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-05-10T09:41:00.000Z</t>
+          <t>2024-05-10T09:45:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-02T17:20:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -5386,7 +5842,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-nh-H-u-c463b1a94fb2425887a744193ba02405</t>
+          <t>https://www.notion.so/Th-Huy-n-Tr-n-f973382b037a4eb184bce9e5318184b8</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -5443,7 +5899,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Ngọc Lặc - Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Ngọc Lặc - Thanh Hoá', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên - Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên - Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -5459,7 +5915,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -5470,140 +5926,166 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AL21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM21" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>0879533217</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>0912931220</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr">
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AW21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Đình Hậu', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Đình Hậu', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV21" t="inlineStr">
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Đỗ Thị Huyền Trân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Thị Huyền Trân', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AW21" t="inlineStr">
+      <c r="AZ21" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="AX21" t="inlineStr">
+      <c r="BA21" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>?Jwa</t>
-        </is>
-      </c>
-      <c r="AZ21" t="inlineStr">
-        <is>
-          <t>Quản trị cơ sở</t>
-        </is>
-      </c>
-      <c r="BA21" t="inlineStr">
-        <is>
-          <t>orange</t>
-        </is>
-      </c>
       <c r="BB21" t="inlineStr">
         <is>
-          <t>VWB;</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
         <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="BE21" t="inlineStr"/>
-      <c r="BF21" t="inlineStr"/>
-      <c r="BG21" t="inlineStr"/>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>\[^V</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>Chính thức</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="BI21" t="inlineStr"/>
-      <c r="BJ21" t="inlineStr"/>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5613,17 +6095,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7e29a9ca-b017-4ad6-a6b0-6ed9330137bc</t>
+          <t>c463b1a9-4fb2-4258-87a7-44193ba02405</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-05-10T09:38:00.000Z</t>
+          <t>2024-05-10T09:41:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-05-23T19:56:00.000Z</t>
+          <t>2024-07-08T13:58:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -5636,7 +6118,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-V-n-Linh-7e29a9cab0174ad6a6b06ed9330137bc</t>
+          <t>https://www.notion.so/L-nh-H-u-c463b1a94fb2425887a744193ba02405</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -5693,7 +6175,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Ngọc Lặc - Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Ngọc Lặc - Thanh Hoá', 'href': None}]</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -5709,7 +6191,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -5720,136 +6202,166 @@
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG22" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>0879533217</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr">
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
+      <c r="AW22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Văn Linh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Văn Linh', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV22" t="inlineStr">
-        <is>
-          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
-        </is>
-      </c>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>Quản lý vận hành</t>
-        </is>
-      </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Đình Hậu', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Đình Hậu', 'href': None}]</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>]EdZ</t>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>Quản trị cấp cao</t>
+          <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>red</t>
         </is>
       </c>
       <c r="BB22" t="inlineStr">
         <is>
-          <t>KqT_</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
         <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="BE22" t="inlineStr"/>
-      <c r="BF22" t="inlineStr"/>
-      <c r="BG22" t="inlineStr"/>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>?Jwa</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>Quản trị cơ sở</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="BI22" t="inlineStr"/>
-      <c r="BJ22" t="inlineStr"/>
+          <t>VWB;</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5859,17 +6371,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+          <t>7e29a9ca-b017-4ad6-a6b0-6ed9330137bc</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-05-10T09:35:00.000Z</t>
+          <t>2024-05-10T09:38:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-05-25T10:55:00.000Z</t>
+          <t>2024-07-08T13:58:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5882,7 +6394,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ph-m-Thanh-Ho-ng-a73ea60d3de14e9baa7bf22fda5742bd</t>
+          <t>https://www.notion.so/L-V-n-Linh-7e29a9cab0174ad6a6b06ed9330137bc</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5955,7 +6467,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -5966,136 +6478,162 @@
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AL23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM23" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>tSw%40</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AW23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Phạm Thanh Hoàng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phạm Thanh Hoàng', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV23" t="inlineStr">
-        <is>
-          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
-        </is>
-      </c>
-      <c r="AW23" t="inlineStr">
-        <is>
-          <t>Bác sĩ</t>
-        </is>
-      </c>
       <c r="AX23" t="inlineStr">
         <is>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Văn Linh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Văn Linh', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>Quản lý vận hành</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>]EdZ</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>Quản trị cấp cao</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>gray</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>\[^V</t>
-        </is>
-      </c>
-      <c r="AZ23" t="inlineStr">
-        <is>
-          <t>Chính thức</t>
-        </is>
-      </c>
-      <c r="BA23" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="BB23" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BC23" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BD23" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="BI23" t="inlineStr"/>
-      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6105,17 +6643,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-05-10T09:31:00.000Z</t>
+          <t>2024-05-10T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-05-25T10:48:00.000Z</t>
+          <t>2024-07-08T13:58:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -6128,7 +6666,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-Th-M-H-ng-bc9b2b6b314044b9a1be4dc8e77d8898</t>
+          <t>https://www.notion.so/Ph-m-Thanh-Ho-ng-a73ea60d3de14e9baa7bf22fda5742bd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -6201,7 +6739,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -6212,136 +6750,162 @@
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG24" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AL24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM24" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>x%7BZK</t>
+          <t>tSw%40</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone_number</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AW24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU24" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Mỹ Hằng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Mỹ Hằng', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV24" t="inlineStr">
-        <is>
-          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
-        </is>
-      </c>
-      <c r="AW24" t="inlineStr">
-        <is>
-          <t>Quản lý vận hành</t>
-        </is>
-      </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>[{'type': 'text', 'text': {'content': 'Phạm Thanh Hoàng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phạm Thanh Hoàng', 'href': None}]</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>]EdZ</t>
+          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>Quản trị cấp cao</t>
+          <t>Bác sĩ</t>
         </is>
       </c>
       <c r="BA24" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="BB24" t="inlineStr">
         <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>\[^V</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>Chính thức</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="BC24" t="inlineStr">
+      <c r="BI24" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BD24" t="inlineStr">
+      <c r="BJ24" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BE24" t="inlineStr"/>
-      <c r="BF24" t="inlineStr"/>
-      <c r="BG24" t="inlineStr"/>
-      <c r="BH24" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="BI24" t="inlineStr"/>
-      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr"/>
+      <c r="BP24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6351,17 +6915,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>75046948-a198-4627-89b3-3bbf5967526b</t>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-05-10T09:29:00.000Z</t>
+          <t>2024-05-10T09:31:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-05-28T15:17:00.000Z</t>
+          <t>2024-07-08T13:58:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -6374,7 +6938,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Nguy-n-Ho-ng-Y-n-Quy-n-75046948a198462789b33bbf5967526b</t>
+          <t>https://www.notion.so/L-m-Th-M-H-ng-bc9b2b6b314044b9a1be4dc8e77d8898</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -6431,7 +6995,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Vĩnh Long', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Vĩnh Long', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -6447,7 +7011,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -6458,144 +7022,162 @@
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AL25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM25" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>0898833566</t>
-        </is>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AQ25" t="inlineStr">
-        <is>
-          <t>email</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr">
         <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AW25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU25" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hoàng Yến Quyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hoàng Yến Quyên', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV25" t="inlineStr">
-        <is>
-          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
-        </is>
-      </c>
-      <c r="AW25" t="inlineStr">
-        <is>
-          <t>Quản trị viên</t>
-        </is>
-      </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Mỹ Hằng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Mỹ Hằng', 'href': None}]</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>?Jwa</t>
+          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>Quản trị cơ sở</t>
+          <t>Quản lý vận hành</t>
         </is>
       </c>
       <c r="BA25" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="BB25" t="inlineStr">
         <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>]EdZ</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>Quản trị cấp cao</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>gray</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="BC25" t="inlineStr">
+      <c r="BI25" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="BD25" t="inlineStr">
+      <c r="BJ25" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BE25" t="inlineStr">
-        <is>
-          <t>2002-08-15</t>
-        </is>
-      </c>
-      <c r="BF25" t="inlineStr"/>
-      <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="BI25" t="inlineStr"/>
-      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6605,17 +7187,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
+          <t>75046948-a198-4627-89b3-3bbf5967526b</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-05-10T09:17:00.000Z</t>
+          <t>2024-05-10T09:29:00.000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-05-23T18:36:00.000Z</t>
+          <t>2024-07-08T13:58:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -6628,7 +7210,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Th-ch-Ho-ng-Nh-n-cca1354dd5854e098845dc6dadbcb631</t>
+          <t>https://www.notion.so/Nguy-n-Ho-ng-Y-n-Quy-n-75046948a198462789b33bbf5967526b</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -6685,7 +7267,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Vĩnh Long', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Vĩnh Long', 'href': None}]</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -6701,7 +7283,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -6712,132 +7294,170 @@
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG26" t="inlineStr">
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AL26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM26" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>0898833566</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr">
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT26" t="inlineStr">
+      <c r="AW26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU26" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thạch Hoàng Nhân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thạch Hoàng Nhân', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV26" t="inlineStr">
-        <is>
-          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
-        </is>
-      </c>
-      <c r="AW26" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hoàng Yến Quyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hoàng Yến Quyên', 'href': None}]</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>\[^V</t>
+          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>Chính thức</t>
+          <t>Quản trị viên</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="BB26" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC26" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD26" t="inlineStr">
         <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="BE26" t="inlineStr"/>
-      <c r="BF26" t="inlineStr"/>
-      <c r="BG26" t="inlineStr"/>
-      <c r="BH26" t="inlineStr"/>
-      <c r="BI26" t="inlineStr"/>
-      <c r="BJ26" t="inlineStr"/>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>?Jwa</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>Quản trị cơ sở</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>2002-08-15</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6847,17 +7467,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7355dc08-dad8-4f32-a691-2cbf92f70ca5</t>
+          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-05-08T05:30:00.000Z</t>
+          <t>2024-05-10T09:17:00.000Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-02T18:01:00.000Z</t>
+          <t>2024-07-08T13:58:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -6870,7 +7490,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-n-H-i-7355dc08dad84f32a6912cbf92f70ca5</t>
+          <t>https://www.notion.so/Th-ch-Ho-ng-Nh-n-cca1354dd5854e098845dc6dadbcb631</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -6881,7 +7501,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -6927,7 +7547,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Hà Nội', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hà Nội', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -6943,7 +7563,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -6954,148 +7574,158 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr">
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AL27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM27" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>0386756091</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>hai.mda01@gmail.com</t>
-        </is>
-      </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT27" t="inlineStr">
+      <c r="AW27" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU27" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đỗ Tiến Hải', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Tiến Hải', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AV27" t="inlineStr">
-        <is>
-          <t>7b471659-968e-4223-a416-2ea11902750b</t>
-        </is>
-      </c>
-      <c r="AW27" t="inlineStr">
-        <is>
-          <t>Kỹ thuật viên</t>
-        </is>
-      </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>[{'type': 'text', 'text': {'content': 'Thạch Hoàng Nhân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thạch Hoàng Nhân', 'href': None}]</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
+          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>GL=j</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="AZ27" t="inlineStr">
+      <c r="BF27" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BA27" t="inlineStr">
+      <c r="BG27" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BB27" t="inlineStr">
+      <c r="BH27" t="inlineStr">
         <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="BC27" t="inlineStr">
+      <c r="BI27" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="BD27" t="inlineStr">
+      <c r="BJ27" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BE27" t="inlineStr">
-        <is>
-          <t>2001-11-02</t>
-        </is>
-      </c>
-      <c r="BF27" t="inlineStr"/>
-      <c r="BG27" t="inlineStr"/>
-      <c r="BH27" t="inlineStr">
-        <is>
-          <t>2024-05-01</t>
-        </is>
-      </c>
-      <c r="BI27" t="inlineStr"/>
-      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7105,7 +7735,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bdc3e2cc-c23d-4849-9b9b-ae1443a4cfca</t>
+          <t>7355dc08-dad8-4f32-a691-2cbf92f70ca5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7115,7 +7745,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-02T18:01:00.000Z</t>
+          <t>2024-07-08T15:21:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -7128,7 +7758,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Nguy-n-H-u-Quang-bdc3e2ccc23d48499b9bae1443a4cfca</t>
+          <t>https://www.notion.so/Ti-n-H-i-7355dc08dad84f32a6912cbf92f70ca5</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -7201,7 +7831,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -7212,148 +7842,458 @@
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>OaR_</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>select</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
         <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AG28" t="inlineStr">
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AI28" t="n">
+      <c r="AL28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>nWf%3D</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>tSw%40</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>0386756091</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>x%7BZK</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>hai.mda01@gmail.com</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Đỗ Tiến Hải', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Tiến Hải', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>7b471659-968e-4223-a416-2ea11902750b</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>Kỹ thuật viên</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>GL=j</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>\[^V</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>Chính thức</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>2001-11-02</t>
+        </is>
+      </c>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>bdc3e2cc-c23d-4849-9b9b-ae1443a4cfca</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-05-08T05:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-07-08T15:21:00.000Z</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/Nguy-n-H-u-Quang-bdc3e2ccc23d48499b9bae1443a4cfca</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>3213b32a-e230-44e2-afdd-04abcc992e96</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>%3AtZ%5B</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>%3Eb%60D</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>rich_text</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': 'Hà Nội', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hà Nội', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>LgyH</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Mb%3CL</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>kDDv</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="AL29" t="n">
         <v>2</v>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AM29" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr">
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AR29" t="inlineStr">
         <is>
           <t>0326665814</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr">
+      <c r="AS29" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AU29" t="inlineStr">
         <is>
           <t>manager.clozhcraft@gmail.com</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AV29" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr">
+      <c r="AW29" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU28" t="inlineStr">
+      <c r="AX29" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hữu Quang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hữu Quang', 'href': None}]</t>
         </is>
       </c>
-      <c r="AV28" t="inlineStr">
+      <c r="AY29" t="inlineStr">
         <is>
           <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
-      <c r="AW28" t="inlineStr">
+      <c r="AZ29" t="inlineStr">
         <is>
           <t>Quản lý vận hành</t>
         </is>
       </c>
-      <c r="AX28" t="inlineStr">
+      <c r="BA29" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="AY28" t="inlineStr">
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>GL=j</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
         <is>
           <t>dux}</t>
         </is>
       </c>
-      <c r="AZ28" t="inlineStr">
+      <c r="BF29" t="inlineStr">
         <is>
           <t>Quản trị cấp trung</t>
         </is>
       </c>
-      <c r="BA28" t="inlineStr">
+      <c r="BG29" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="BB28" t="inlineStr">
-        <is>
-          <t>;;Tu</t>
-        </is>
-      </c>
-      <c r="BC28" t="inlineStr">
-        <is>
-          <t>OUTSIDE</t>
-        </is>
-      </c>
-      <c r="BD28" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="BE28" t="inlineStr">
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr">
         <is>
           <t>2001-08-23</t>
         </is>
       </c>
-      <c r="BF28" t="inlineStr"/>
-      <c r="BG28" t="inlineStr"/>
-      <c r="BH28" t="inlineStr">
+      <c r="BL29" t="inlineStr"/>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="BI28" t="inlineStr"/>
-      <c r="BJ28" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notion_data/HO_SO_NHAN_SU.xlsx
+++ b/notion_data/HO_SO_NHAN_SU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,17 +783,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ad82673f-3f9f-4e02-a65d-a97c60514f2e</t>
+          <t>35f44955-2223-488a-8274-8db6f726d9f7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-15T08:59:00.000Z</t>
+          <t>2024-07-10T03:16:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-15T08:59:00.000Z</t>
+          <t>2024-07-10T03:16:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -806,7 +806,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/530-ad82673f3f9f4e02a65da97c60514f2e</t>
+          <t>https://www.notion.so/C-Na-gi-p-vi-c-35f449552223488a82748db6f726d9f7</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>a6395f80-d3eb-432b-a4b9-8dab3b81175e</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="AL2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '530', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '530', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Cô Na giúp việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Na giúp việc', 'href': None}]</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -1003,17 +1003,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>35f44955-2223-488a-8274-8db6f726d9f7</t>
+          <t>d8178da7-a5cc-474f-9c6e-ed3029f89c4d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-10T03:16:00.000Z</t>
+          <t>2024-07-02T17:59:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-10T03:16:00.000Z</t>
+          <t>2024-07-08T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-Na-gi-p-vi-c-35f449552223488a82748db6f726d9f7</t>
+          <t>https://www.notion.so/Sang-sang-d8178da7a5cc474f9c6eed3029f89c4d</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="AL3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
@@ -1193,21 +1193,69 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cô Na giúp việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Na giúp việc', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
+          <t>[{'type': 'text', 'text': {'content': 'Sang sang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sang sang', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>Sale &amp; Lễ Tân</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>|HxR</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Thử việc</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
       <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
@@ -1223,12 +1271,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>d8178da7-a5cc-474f-9c6e-ed3029f89c4d</t>
+          <t>ea0572af-f8c9-430d-9d95-23303a4ce4cd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-02T17:59:00.000Z</t>
+          <t>2024-07-02T17:24:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1246,7 +1294,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Sang-sang-d8178da7a5cc474f9c6eed3029f89c4d</t>
+          <t>https://www.notion.so/La-Th-Ng-c-H-My-ea0572aff8c9430d9d9523303a4ce4cd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1303,7 +1351,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'href': None}]</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1366,7 +1414,7 @@
         </is>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
@@ -1413,7 +1461,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Sang sang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sang sang', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'La Thị Ngọc Hà My ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'La Thị Ngọc Hà My ', 'href': None}]</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -1448,38 +1496,46 @@
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>|HxR</t>
+          <t>x&gt;Ke</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>Thử việc</t>
+          <t>Học việc</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>default</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>Lj_l</t>
+          <t>KqT_</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr"/>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>1998-01-01</t>
+        </is>
+      </c>
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
     </row>
@@ -1491,12 +1547,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ea0572af-f8c9-430d-9d95-23303a4ce4cd</t>
+          <t>90bc02c2-bd1e-4c33-884a-38a1db528c78</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-02T17:24:00.000Z</t>
+          <t>2024-07-02T17:18:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1514,7 +1570,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/La-Th-Ng-c-H-My-ea0572aff8c9430d9d9523303a4ce4cd</t>
+          <t>https://www.notion.so/L-Th-Ng-c-Mi-90bc02c2bd1e4c33884a38a1db528c78</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1571,7 +1627,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '123/8 Trần Hưng Đạo , phường an Phú , quận ninh kiều. Tpct', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1634,7 +1690,7 @@
         </is>
       </c>
       <c r="AL5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1657,7 +1713,11 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>0852169606</t>
+        </is>
+      </c>
       <c r="AS5" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -1681,7 +1741,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'La Thị Ngọc Hà My ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'La Thị Ngọc Hà My ', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Thị Ngọc Mi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Thị Ngọc Mi', 'href': None}]</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1716,44 +1776,44 @@
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>x&gt;Ke</t>
+          <t>|HxR</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>Học việc</t>
+          <t>Thử việc</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>KqT_</t>
+          <t>VWB;</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>red</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
         <is>
-          <t>1998-01-01</t>
+          <t>2004-01-13</t>
         </is>
       </c>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr"/>
@@ -1767,17 +1827,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>90bc02c2-bd1e-4c33-884a-38a1db528c78</t>
+          <t>049e08c7-01e5-4ac6-bb22-4d52622559f1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-02T17:18:00.000Z</t>
+          <t>2024-06-17T17:35:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-08T14:00:00.000Z</t>
+          <t>2024-07-08T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1790,7 +1850,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-Th-Ng-c-Mi-90bc02c2bd1e4c33884a38a1db528c78</t>
+          <t>https://www.notion.so/B-c-S-Th-o-049e08c701e54ac6bb224d52622559f1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1910,7 +1970,7 @@
         </is>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
@@ -1933,11 +1993,7 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>0852169606</t>
-        </is>
-      </c>
+      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -1961,81 +2017,61 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Thị Ngọc Mi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Thị Ngọc Mi', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Thảo', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Thảo', 'href': None}]</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
+          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>Sale &amp; Lễ Tân</t>
+          <t>Bác sĩ</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>t;`n</t>
+          <t>GL=j</t>
         </is>
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>Onsite</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>|HxR</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>Thử việc</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>VWB;</t>
+          <t>;;Tu</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>OUTSIDE</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>2004-01-13</t>
-        </is>
-      </c>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>2024-06-27</t>
-        </is>
-      </c>
+      <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
     </row>
@@ -2047,17 +2083,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>049e08c7-01e5-4ac6-bb22-4d52622559f1</t>
+          <t>467f676f-8f46-49b5-afea-feecb0794d23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-17T17:35:00.000Z</t>
+          <t>2024-06-16T09:45:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-08T16:46:00.000Z</t>
+          <t>2024-07-08T14:00:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2070,7 +2106,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/B-c-S-Th-o-049e08c701e54ac6bb224d52622559f1</t>
+          <t>https://www.notion.so/ng-Ng-c-Mai-467f676f8f4649b5afeafeecb0794d23</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -2127,7 +2163,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Hưng yên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hưng yên', 'href': None}]</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -2190,7 +2226,7 @@
         </is>
       </c>
       <c r="AL7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -2237,61 +2273,81 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Thảo', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Thảo', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Đặng Ngọc Mai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đặng Ngọc Mai', 'href': None}]</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
+          <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
+          <t>Kỹ thuật viên</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>default</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>GL=j</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>|HxR</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>Thử việc</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>Lj_l</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr"/>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>2005-01-18</t>
+        </is>
+      </c>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
     </row>
@@ -2303,12 +2359,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>467f676f-8f46-49b5-afea-feecb0794d23</t>
+          <t>e0ac0375-0b3a-4c88-a613-cb8df33ebe6b</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-16T09:45:00.000Z</t>
+          <t>2024-06-05T12:48:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2326,7 +2382,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/ng-Ng-c-Mai-467f676f8f4649b5afeafeecb0794d23</t>
+          <t>https://www.notion.so/L-m-Th-H-ng-e0ac03750b3a4c88a613cb8df33ebe6b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2337,7 +2393,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -2383,7 +2439,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Hưng yên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hưng yên', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -2446,7 +2502,7 @@
         </is>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
@@ -2493,24 +2549,12 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đặng Ngọc Mai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đặng Ngọc Mai', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>7b471659-968e-4223-a416-2ea11902750b</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>Kỹ thuật viên</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
+          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Hường', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Hường', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr">
         <is>
           <t>t;`n</t>
@@ -2526,48 +2570,28 @@
           <t>green</t>
         </is>
       </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>|HxR</t>
-        </is>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>Thử việc</t>
-        </is>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>Lj_l</t>
+          <t>KqT_</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="BK8" t="inlineStr">
-        <is>
-          <t>2005-01-18</t>
-        </is>
-      </c>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr">
-        <is>
-          <t>2024-06-17</t>
-        </is>
-      </c>
+      <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
     </row>
@@ -2579,17 +2603,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>e0ac0375-0b3a-4c88-a613-cb8df33ebe6b</t>
+          <t>545126c4-c319-4d90-a506-2627e3e232a0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-05T12:48:00.000Z</t>
+          <t>2024-06-05T05:44:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-08T14:00:00.000Z</t>
+          <t>2024-07-08T13:59:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2602,7 +2626,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-Th-H-ng-e0ac03750b3a4c88a613cb8df33ebe6b</t>
+          <t>https://www.notion.so/B-c-S-Ngo-i-545126c4c3194d90a5062627e3e232a0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2613,7 +2637,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2722,7 +2746,7 @@
         </is>
       </c>
       <c r="AL9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -2769,25 +2793,37 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Hường', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Hường', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
+          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Ngoài', 'href': None}]</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>Bác sĩ</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>t;`n</t>
+          <t>GL=j</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>Onsite</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr"/>
@@ -2795,17 +2831,17 @@
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>KqT_</t>
+          <t>;;Tu</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>OUTSIDE</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr"/>
@@ -2823,12 +2859,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>545126c4-c319-4d90-a506-2627e3e232a0</t>
+          <t>3db76400-46c0-4adb-9d9c-51542f2de2f9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-05T05:44:00.000Z</t>
+          <t>2024-05-23T19:15:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2846,7 +2882,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/B-c-S-Ngo-i-545126c4c3194d90a5062627e3e232a0</t>
+          <t>https://www.notion.so/Pen-Design-3db7640046c04adb9d9c51542f2de2f9</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2857,7 +2893,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2966,7 +3002,7 @@
         </is>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
@@ -3013,61 +3049,77 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Ngoài', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Pen Design ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Pen Design ', 'href': None}]</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
+          <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
+          <t>Kỹ thuật viên</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>GL=j</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>\[^V</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>Chính thức</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
           <t>purple</t>
-        </is>
-      </c>
-      <c r="BB10" t="inlineStr">
-        <is>
-          <t>GL=j</t>
-        </is>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="BD10" t="inlineStr">
-        <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>;;Tu</t>
-        </is>
-      </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>OUTSIDE</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>yellow</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
     </row>
@@ -3079,12 +3131,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3db76400-46c0-4adb-9d9c-51542f2de2f9</t>
+          <t>3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-05-23T19:15:00.000Z</t>
+          <t>2024-05-22T12:32:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3102,7 +3154,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Pen-Design-3db7640046c04adb9d9c51542f2de2f9</t>
+          <t>https://www.notion.so/o-V-ng-Anh-3601e7b0a80d4dfdbfa10d34a0e7e389</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -3113,7 +3165,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -3159,7 +3211,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -3222,7 +3274,7 @@
         </is>
       </c>
       <c r="AL11" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -3245,7 +3297,11 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>0963316200</t>
+        </is>
+      </c>
       <c r="AS11" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -3269,7 +3325,7 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Pen Design ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Pen Design ', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Đào Vương Anh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đào Vương Anh', 'href': None}]</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -3289,17 +3345,17 @@
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>GL=j</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>green</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
@@ -3319,17 +3375,17 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>KqT_</t>
+          <t>Lj_l</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>green</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr"/>
@@ -3337,7 +3393,7 @@
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr"/>
@@ -3351,7 +3407,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3601e7b0-a80d-4dfd-bfa1-0d34a0e7e389</t>
+          <t>e49d0ce3-124d-4e4b-b377-be2139cde3f5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3374,7 +3430,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/o-V-ng-Anh-3601e7b0a80d4dfdbfa10d34a0e7e389</t>
+          <t>https://www.notion.so/L-m-Ho-ng-Ph-e49d0ce3124d4e4bb377be2139cde3f5</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -3431,7 +3487,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3494,7 +3550,7 @@
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
@@ -3517,11 +3573,7 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>0963316200</t>
-        </is>
-      </c>
+      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -3545,7 +3597,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đào Vương Anh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đào Vương Anh', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lâm Hoàng Phú', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Hoàng Phú', 'href': None}]</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -3595,17 +3647,17 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>Lj_l</t>
+          <t>KqT_</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr"/>
@@ -3613,7 +3665,7 @@
       <c r="BM12" t="inlineStr"/>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr"/>
@@ -3627,12 +3679,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>e49d0ce3-124d-4e4b-b377-be2139cde3f5</t>
+          <t>6454d5e5-8a20-473b-a597-dc1973dd1e0e</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-05-22T12:32:00.000Z</t>
+          <t>2024-05-17T14:53:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3650,7 +3702,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-Ho-ng-Ph-e49d0ce3124d4e4bb377be2139cde3f5</t>
+          <t>https://www.notion.so/C-Si-ng-gi-p-Vi-c-6454d5e58a20473ba597dc1973dd1e0e</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3661,7 +3713,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -3707,7 +3759,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3770,7 +3822,7 @@
         </is>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -3817,22 +3869,22 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lâm Hoàng Phú', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Hoàng Phú', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Cô Siêng giúp Việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Siêng giúp Việc', 'href': None}]</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>7b471659-968e-4223-a416-2ea11902750b</t>
+          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>Kỹ thuật viên</t>
+          <t>Nhân viên hậu cần</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -3867,17 +3919,17 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>KqT_</t>
+          <t>VWB;</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>red</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr"/>
@@ -3885,7 +3937,7 @@
       <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr"/>
@@ -3899,12 +3951,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6454d5e5-8a20-473b-a597-dc1973dd1e0e</t>
+          <t>3fac4a49-402c-4d34-aa91-419ebc20760c</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-05-17T14:53:00.000Z</t>
+          <t>2024-05-17T14:52:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3922,7 +3974,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/C-Si-ng-gi-p-Vi-c-6454d5e58a20473ba597dc1973dd1e0e</t>
+          <t>https://www.notion.so/Tr-n-Kh-nh-Hi-p-3fac4a49402c4d34aa91419ebc20760c</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3979,7 +4031,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -4042,7 +4094,7 @@
         </is>
       </c>
       <c r="AL14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
@@ -4065,7 +4117,11 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>0386381682</t>
+        </is>
+      </c>
       <c r="AS14" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -4089,22 +4145,22 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Cô Siêng giúp Việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Siêng giúp Việc', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Trần Khánh Hiệp', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trần Khánh Hiệp', 'href': None}]</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>Nhân viên hậu cần</t>
+          <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>red</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -4171,12 +4227,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3fac4a49-402c-4d34-aa91-419ebc20760c</t>
+          <t>d1ae645f-f3dd-46cd-a715-a8c150605da6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-05-17T14:52:00.000Z</t>
+          <t>2024-05-13T09:27:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4194,7 +4250,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Tr-n-Kh-nh-Hi-p-3fac4a49402c4d34aa91419ebc20760c</t>
+          <t>https://www.notion.so/L-Ho-ng-Thanh-d1ae645ff3dd46cda715a8c150605da6</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -4251,7 +4307,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sóc Trăng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -4314,7 +4370,7 @@
         </is>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -4339,7 +4395,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>0386381682</t>
+          <t>0988302615</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
@@ -4365,7 +4421,7 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Trần Khánh Hiệp', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trần Khánh Hiệp', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Hoàng Thanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Hoàng Thanh', 'href': None}]</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -4415,17 +4471,17 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>VWB;</t>
+          <t>Lj_l</t>
         </is>
       </c>
       <c r="BI15" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="BJ15" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>green</t>
         </is>
       </c>
       <c r="BK15" t="inlineStr"/>
@@ -4433,7 +4489,7 @@
       <c r="BM15" t="inlineStr"/>
       <c r="BN15" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="BO15" t="inlineStr"/>
@@ -4447,12 +4503,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>d1ae645f-f3dd-46cd-a715-a8c150605da6</t>
+          <t>e926d62c-e624-4663-9009-c562ae5166cf</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-05-13T09:27:00.000Z</t>
+          <t>2024-05-13T08:12:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4470,7 +4526,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-Ho-ng-Thanh-d1ae645ff3dd46cda715a8c150605da6</t>
+          <t>https://www.notion.so/Nguy-n-Ph-c-Nam-e926d62ce62446639009c562ae5166cf</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -4527,7 +4583,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thanh Hoá', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Huế', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Huế', 'href': None}]</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -4590,7 +4646,7 @@
         </is>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
@@ -4615,7 +4671,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>0988302615</t>
+          <t>0982136861</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
@@ -4641,22 +4697,22 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Hoàng Thanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Hoàng Thanh', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Phúc Nam', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Phúc Nam', 'href': None}]</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
+          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>Sale &amp; Lễ Tân</t>
+          <t>Quản trị viên</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
@@ -4676,17 +4732,17 @@
       </c>
       <c r="BE16" t="inlineStr">
         <is>
-          <t>\[^V</t>
+          <t>?Jwa</t>
         </is>
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>Chính thức</t>
+          <t>Quản trị cơ sở</t>
         </is>
       </c>
       <c r="BG16" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="BH16" t="inlineStr">
@@ -4709,7 +4765,7 @@
       <c r="BM16" t="inlineStr"/>
       <c r="BN16" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="BO16" t="inlineStr"/>
@@ -4723,12 +4779,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>e926d62c-e624-4663-9009-c562ae5166cf</t>
+          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-05-13T08:12:00.000Z</t>
+          <t>2024-05-13T05:42:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4746,7 +4802,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Nguy-n-Ph-c-Nam-e926d62ce62446639009c562ae5166cf</t>
+          <t>https://www.notion.so/CTV-Ngo-i-7bb857c9f973440b88f297e138ee6082</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -4803,7 +4859,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Huế', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Huế', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -4866,7 +4922,7 @@
         </is>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -4889,11 +4945,7 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>0982136861</t>
-        </is>
-      </c>
+      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -4917,77 +4969,73 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Phúc Nam', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Phúc Nam', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'CTV Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'CTV Ngoài', 'href': None}]</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
+          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>Quản trị viên</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>GL=j</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr">
-        <is>
-          <t>t;`n</t>
-        </is>
-      </c>
-      <c r="BC17" t="inlineStr">
-        <is>
-          <t>Onsite</t>
-        </is>
-      </c>
-      <c r="BD17" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>?Jwa</t>
+          <t>\[^V</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>Quản trị cơ sở</t>
+          <t>Chính thức</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>Lj_l</t>
+          <t>;;Tu</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>OUTSIDE</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
-        </is>
-      </c>
+      <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
       <c r="BP17" t="inlineStr"/>
     </row>
@@ -4999,12 +5047,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7bb857c9-f973-440b-88f2-97e138ee6082</t>
+          <t>3d301dfe-6e3d-4d28-a249-1fd5fac9abd3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-05-13T05:42:00.000Z</t>
+          <t>2024-05-12T18:07:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5022,7 +5070,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/CTV-Ngo-i-7bb857c9f973440b88f297e138ee6082</t>
+          <t>https://www.notion.so/Kha-Nh-Hu-nh-3d301dfe6e3d4d28a2491fd5fac9abd3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -5079,7 +5127,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Phụng Hiệp - Hậu Giang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phụng Hiệp - Hậu Giang', 'href': None}]</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -5142,7 +5190,7 @@
         </is>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
@@ -5165,7 +5213,11 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>0907058203</t>
+        </is>
+      </c>
       <c r="AS18" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -5189,37 +5241,37 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'CTV Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'CTV Ngoài', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Kha Như Huỳnh ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Kha Như Huỳnh ', 'href': None}]</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>red</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>GL=j</t>
+          <t>t;`n</t>
         </is>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Onsite</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>green</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
@@ -5239,23 +5291,27 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>VWB;</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>red</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="inlineStr"/>
       <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
     </row>
@@ -5267,12 +5323,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3d301dfe-6e3d-4d28-a249-1fd5fac9abd3</t>
+          <t>b9c67786-5d99-45c1-85d7-f96bfb66ef22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-05-12T18:07:00.000Z</t>
+          <t>2024-05-10T10:27:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5290,7 +5346,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Kha-Nh-Hu-nh-3d301dfe6e3d4d28a2491fd5fac9abd3</t>
+          <t>https://www.notion.so/Tr-ng-L-m-Khanh-b9c677865d9945c185d7f96bfb66ef22</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -5347,7 +5403,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Phụng Hiệp - Hậu Giang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phụng Hiệp - Hậu Giang', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên- Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên- Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -5410,7 +5466,7 @@
         </is>
       </c>
       <c r="AL19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -5435,7 +5491,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>0907058203</t>
+          <t>0799609322</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
@@ -5461,22 +5517,22 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Kha Như Huỳnh ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Kha Như Huỳnh ', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Trương Lâm Khanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trương Lâm Khanh', 'href': None}]</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
+          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>Sale &amp; Lễ Tân</t>
+          <t>Nhân viên hậu cần</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="BB19" t="inlineStr">
@@ -5511,17 +5567,17 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>VWB;</t>
+          <t>KqT_</t>
         </is>
       </c>
       <c r="BI19" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="BJ19" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="BK19" t="inlineStr"/>
@@ -5529,7 +5585,7 @@
       <c r="BM19" t="inlineStr"/>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr"/>
@@ -5543,12 +5599,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>b9c67786-5d99-45c1-85d7-f96bfb66ef22</t>
+          <t>f973382b-037a-4eb1-84bc-e9e5318184b8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-05-10T10:27:00.000Z</t>
+          <t>2024-05-10T09:45:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5566,7 +5622,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Tr-ng-L-m-Khanh-b9c677865d9945c185d7f96bfb66ef22</t>
+          <t>https://www.notion.so/Th-Huy-n-Tr-n-f973382b037a4eb184bce9e5318184b8</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -5623,7 +5679,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên- Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên- Sóc Trăng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên - Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên - Sóc Trăng', 'href': None}]</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -5686,7 +5742,7 @@
         </is>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
@@ -5711,7 +5767,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>0799609322</t>
+          <t>0912931220</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
@@ -5737,22 +5793,22 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Trương Lâm Khanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trương Lâm Khanh', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Đỗ Thị Huyền Trân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Thị Huyền Trân', 'href': None}]</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
+          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>Nhân viên hậu cần</t>
+          <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>red</t>
         </is>
       </c>
       <c r="BB20" t="inlineStr">
@@ -5819,17 +5875,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>f973382b-037a-4eb1-84bc-e9e5318184b8</t>
+          <t>c463b1a9-4fb2-4258-87a7-44193ba02405</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-05-10T09:45:00.000Z</t>
+          <t>2024-05-10T09:41:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-08T13:59:00.000Z</t>
+          <t>2024-07-08T13:58:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -5842,7 +5898,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Th-Huy-n-Tr-n-f973382b037a4eb184bce9e5318184b8</t>
+          <t>https://www.notion.so/L-nh-H-u-c463b1a94fb2425887a744193ba02405</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -5899,7 +5955,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Mỹ Xuyên - Sóc Trăng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Mỹ Xuyên - Sóc Trăng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Ngọc Lặc - Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Ngọc Lặc - Thanh Hoá', 'href': None}]</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -5962,7 +6018,7 @@
         </is>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -5987,7 +6043,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>0912931220</t>
+          <t>0879533217</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
@@ -6013,7 +6069,7 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đỗ Thị Huyền Trân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Thị Huyền Trân', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Đình Hậu', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Đình Hậu', 'href': None}]</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -6048,32 +6104,32 @@
       </c>
       <c r="BE21" t="inlineStr">
         <is>
-          <t>\[^V</t>
+          <t>?Jwa</t>
         </is>
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>Chính thức</t>
+          <t>Quản trị cơ sở</t>
         </is>
       </c>
       <c r="BG21" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>KqT_</t>
+          <t>VWB;</t>
         </is>
       </c>
       <c r="BI21" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="BJ21" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>red</t>
         </is>
       </c>
       <c r="BK21" t="inlineStr"/>
@@ -6081,7 +6137,7 @@
       <c r="BM21" t="inlineStr"/>
       <c r="BN21" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="BO21" t="inlineStr"/>
@@ -6095,12 +6151,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>c463b1a9-4fb2-4258-87a7-44193ba02405</t>
+          <t>7e29a9ca-b017-4ad6-a6b0-6ed9330137bc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-05-10T09:41:00.000Z</t>
+          <t>2024-05-10T09:38:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6118,7 +6174,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-nh-H-u-c463b1a94fb2425887a744193ba02405</t>
+          <t>https://www.notion.so/L-V-n-Linh-7e29a9cab0174ad6a6b06ed9330137bc</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -6175,7 +6231,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Ngọc Lặc - Thanh Hoá', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Ngọc Lặc - Thanh Hoá', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -6238,7 +6294,7 @@
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
@@ -6261,11 +6317,7 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>0879533217</t>
-        </is>
-      </c>
+      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -6289,22 +6341,22 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Đình Hậu', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Đình Hậu', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lê Văn Linh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Văn Linh', 'href': None}]</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
+          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>Sale &amp; Lễ Tân</t>
+          <t>Quản lý vận hành</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="BB22" t="inlineStr">
@@ -6324,32 +6376,32 @@
       </c>
       <c r="BE22" t="inlineStr">
         <is>
-          <t>?Jwa</t>
+          <t>]EdZ</t>
         </is>
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>Quản trị cơ sở</t>
+          <t>Quản trị cấp cao</t>
         </is>
       </c>
       <c r="BG22" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>gray</t>
         </is>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>VWB;</t>
+          <t>KqT_</t>
         </is>
       </c>
       <c r="BI22" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="BJ22" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="BK22" t="inlineStr"/>
@@ -6357,7 +6409,7 @@
       <c r="BM22" t="inlineStr"/>
       <c r="BN22" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="BO22" t="inlineStr"/>
@@ -6371,12 +6423,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7e29a9ca-b017-4ad6-a6b0-6ed9330137bc</t>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-05-10T09:38:00.000Z</t>
+          <t>2024-05-10T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6394,7 +6446,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-V-n-Linh-7e29a9cab0174ad6a6b06ed9330137bc</t>
+          <t>https://www.notion.so/Ph-m-Thanh-Ho-ng-a73ea60d3de14e9baa7bf22fda5742bd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -6514,7 +6566,7 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -6561,22 +6613,22 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lê Văn Linh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Văn Linh', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Phạm Thanh Hoàng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phạm Thanh Hoàng', 'href': None}]</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
+          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>Quản lý vận hành</t>
+          <t>Bác sĩ</t>
         </is>
       </c>
       <c r="BA23" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="BB23" t="inlineStr">
@@ -6596,17 +6648,17 @@
       </c>
       <c r="BE23" t="inlineStr">
         <is>
-          <t>]EdZ</t>
+          <t>\[^V</t>
         </is>
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>Quản trị cấp cao</t>
+          <t>Chính thức</t>
         </is>
       </c>
       <c r="BG23" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="BH23" t="inlineStr">
@@ -6629,7 +6681,7 @@
       <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="BO23" t="inlineStr"/>
@@ -6643,12 +6695,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-05-10T09:35:00.000Z</t>
+          <t>2024-05-10T09:31:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -6666,7 +6718,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ph-m-Thanh-Ho-ng-a73ea60d3de14e9baa7bf22fda5742bd</t>
+          <t>https://www.notion.so/L-m-Th-M-H-ng-bc9b2b6b314044b9a1be4dc8e77d8898</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -6786,7 +6838,7 @@
         </is>
       </c>
       <c r="AL24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
@@ -6833,22 +6885,22 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Phạm Thanh Hoàng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phạm Thanh Hoàng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Mỹ Hằng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Mỹ Hằng', 'href': None}]</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>1053be15-a611-470c-818d-307f929a8cd3</t>
+          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>Bác sĩ</t>
+          <t>Quản lý vận hành</t>
         </is>
       </c>
       <c r="BA24" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="BB24" t="inlineStr">
@@ -6868,17 +6920,17 @@
       </c>
       <c r="BE24" t="inlineStr">
         <is>
-          <t>\[^V</t>
+          <t>]EdZ</t>
         </is>
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>Chính thức</t>
+          <t>Quản trị cấp cao</t>
         </is>
       </c>
       <c r="BG24" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>gray</t>
         </is>
       </c>
       <c r="BH24" t="inlineStr">
@@ -6901,7 +6953,7 @@
       <c r="BM24" t="inlineStr"/>
       <c r="BN24" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="BO24" t="inlineStr"/>
@@ -6915,12 +6967,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bc9b2b6b-3140-44b9-a1be-4dc8e77d8898</t>
+          <t>75046948-a198-4627-89b3-3bbf5967526b</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-05-10T09:31:00.000Z</t>
+          <t>2024-05-10T09:29:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6938,7 +6990,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/L-m-Th-M-H-ng-bc9b2b6b314044b9a1be4dc8e77d8898</t>
+          <t>https://www.notion.so/Nguy-n-Ho-ng-Y-n-Quy-n-75046948a198462789b33bbf5967526b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -6995,7 +7047,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Vĩnh Long', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Vĩnh Long', 'href': None}]</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -7058,7 +7110,7 @@
         </is>
       </c>
       <c r="AL25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
@@ -7081,7 +7133,11 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>0898833566</t>
+        </is>
+      </c>
       <c r="AS25" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -7105,22 +7161,22 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Mỹ Hằng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Mỹ Hằng', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hoàng Yến Quyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hoàng Yến Quyên', 'href': None}]</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
+          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>Quản lý vận hành</t>
+          <t>Quản trị viên</t>
         </is>
       </c>
       <c r="BA25" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="BB25" t="inlineStr">
@@ -7140,17 +7196,17 @@
       </c>
       <c r="BE25" t="inlineStr">
         <is>
-          <t>]EdZ</t>
+          <t>?Jwa</t>
         </is>
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>Quản trị cấp cao</t>
+          <t>Quản trị cơ sở</t>
         </is>
       </c>
       <c r="BG25" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="BH25" t="inlineStr">
@@ -7168,12 +7224,16 @@
           <t>purple</t>
         </is>
       </c>
-      <c r="BK25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>2002-08-15</t>
+        </is>
+      </c>
       <c r="BL25" t="inlineStr"/>
       <c r="BM25" t="inlineStr"/>
       <c r="BN25" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="BO25" t="inlineStr"/>
@@ -7187,12 +7247,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>75046948-a198-4627-89b3-3bbf5967526b</t>
+          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-05-10T09:29:00.000Z</t>
+          <t>2024-05-10T09:17:00.000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -7210,7 +7270,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Nguy-n-Ho-ng-Y-n-Quy-n-75046948a198462789b33bbf5967526b</t>
+          <t>https://www.notion.so/Th-ch-Ho-ng-Nh-n-cca1354dd5854e098845dc6dadbcb631</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -7267,7 +7327,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Vĩnh Long', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Vĩnh Long', 'href': None}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -7330,7 +7390,7 @@
         </is>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
@@ -7353,11 +7413,7 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>0898833566</t>
-        </is>
-      </c>
+      <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -7381,81 +7437,73 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hoàng Yến Quyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hoàng Yến Quyên', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Thạch Hoàng Nhân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thạch Hoàng Nhân', 'href': None}]</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
+          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
         </is>
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>Quản trị viên</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr">
         <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>GL=j</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BB26" t="inlineStr">
-        <is>
-          <t>t;`n</t>
-        </is>
-      </c>
-      <c r="BC26" t="inlineStr">
-        <is>
-          <t>Onsite</t>
-        </is>
-      </c>
-      <c r="BD26" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="BE26" t="inlineStr">
         <is>
-          <t>?Jwa</t>
+          <t>\[^V</t>
         </is>
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>Quản trị cơ sở</t>
+          <t>Chính thức</t>
         </is>
       </c>
       <c r="BG26" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>KqT_</t>
+          <t>;;Tu</t>
         </is>
       </c>
       <c r="BI26" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>OUTSIDE</t>
         </is>
       </c>
       <c r="BJ26" t="inlineStr">
         <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="BK26" t="inlineStr">
-        <is>
-          <t>2002-08-15</t>
-        </is>
-      </c>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="inlineStr"/>
       <c r="BM26" t="inlineStr"/>
-      <c r="BN26" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
+      <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
     </row>
@@ -7467,17 +7515,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cca1354d-d585-4e09-8845-dc6dadbcb631</t>
+          <t>7355dc08-dad8-4f32-a691-2cbf92f70ca5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-05-10T09:17:00.000Z</t>
+          <t>2024-05-08T05:30:00.000Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-08T13:58:00.000Z</t>
+          <t>2024-07-08T15:21:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -7490,7 +7538,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Th-ch-Ho-ng-Nh-n-cca1354dd5854e098845dc6dadbcb631</t>
+          <t>https://www.notion.so/Ti-n-H-i-7355dc08dad84f32a6912cbf92f70ca5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -7501,7 +7549,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -7547,7 +7595,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Hà Nội', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hà Nội', 'href': None}]</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -7610,7 +7658,7 @@
         </is>
       </c>
       <c r="AL27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
@@ -7633,7 +7681,11 @@
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>0386756091</t>
+        </is>
+      </c>
       <c r="AS27" t="inlineStr">
         <is>
           <t>x%7BZK</t>
@@ -7644,7 +7696,11 @@
           <t>email</t>
         </is>
       </c>
-      <c r="AU27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>hai.mda01@gmail.com</t>
+        </is>
+      </c>
       <c r="AV27" t="inlineStr">
         <is>
           <t>title</t>
@@ -7657,22 +7713,22 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Thạch Hoàng Nhân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thạch Hoàng Nhân', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Đỗ Tiến Hải', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Tiến Hải', 'href': None}]</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
+          <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Kỹ thuật viên</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>default</t>
         </is>
       </c>
       <c r="BB27" t="inlineStr">
@@ -7707,23 +7763,31 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>;;Tu</t>
+          <t>KqT_</t>
         </is>
       </c>
       <c r="BI27" t="inlineStr">
         <is>
-          <t>OUTSIDE</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="BJ27" t="inlineStr">
         <is>
-          <t>yellow</t>
-        </is>
-      </c>
-      <c r="BK27" t="inlineStr"/>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>2001-11-02</t>
+        </is>
+      </c>
       <c r="BL27" t="inlineStr"/>
       <c r="BM27" t="inlineStr"/>
-      <c r="BN27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
     </row>
@@ -7735,7 +7799,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7355dc08-dad8-4f32-a691-2cbf92f70ca5</t>
+          <t>bdc3e2cc-c23d-4849-9b9b-ae1443a4cfca</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7758,7 +7822,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/Ti-n-H-i-7355dc08dad84f32a6912cbf92f70ca5</t>
+          <t>https://www.notion.so/Nguy-n-H-u-Quang-bdc3e2ccc23d48499b9bae1443a4cfca</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -7878,7 +7942,7 @@
         </is>
       </c>
       <c r="AL28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
@@ -7903,7 +7967,7 @@
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>0386756091</t>
+          <t>0326665814</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
@@ -7918,7 +7982,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>hai.mda01@gmail.com</t>
+          <t>manager.clozhcraft@gmail.com</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
@@ -7933,22 +7997,22 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': 'Đỗ Tiến Hải', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Tiến Hải', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hữu Quang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hữu Quang', 'href': None}]</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>7b471659-968e-4223-a416-2ea11902750b</t>
+          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
-          <t>Kỹ thuật viên</t>
+          <t>Quản lý vận hành</t>
         </is>
       </c>
       <c r="BA28" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="BB28" t="inlineStr">
@@ -7968,17 +8032,17 @@
       </c>
       <c r="BE28" t="inlineStr">
         <is>
-          <t>\[^V</t>
+          <t>dux}</t>
         </is>
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>Chính thức</t>
+          <t>Quản trị cấp trung</t>
         </is>
       </c>
       <c r="BG28" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="BH28" t="inlineStr">
@@ -7998,302 +8062,18 @@
       </c>
       <c r="BK28" t="inlineStr">
         <is>
-          <t>2001-11-02</t>
+          <t>2001-08-23</t>
         </is>
       </c>
       <c r="BL28" t="inlineStr"/>
       <c r="BM28" t="inlineStr"/>
       <c r="BN28" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>bdc3e2cc-c23d-4849-9b9b-ae1443a4cfca</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2024-05-08T05:30:00.000Z</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2024-07-08T15:21:00.000Z</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://www.notion.so/Nguy-n-H-u-Quang-bdc3e2ccc23d48499b9bae1443a4cfca</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>6c64fa83-34dd-4a87-b43b-29aaf5806800</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>database_id</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>3213b32a-e230-44e2-afdd-04abcc992e96</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>%3AtZ%5B</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>%3Eb%60D</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>rich_text</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Hà Nội', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Hà Nội', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>LgyH</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Mb%3CL</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>OaR_</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>jr%3F%3A</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>kDDv</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>NV</t>
-        </is>
-      </c>
-      <c r="AL29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>nWf%3D</t>
-        </is>
-      </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>tSw%40</t>
-        </is>
-      </c>
-      <c r="AQ29" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="AR29" t="inlineStr">
-        <is>
-          <t>0326665814</t>
-        </is>
-      </c>
-      <c r="AS29" t="inlineStr">
-        <is>
-          <t>x%7BZK</t>
-        </is>
-      </c>
-      <c r="AT29" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="AU29" t="inlineStr">
-        <is>
-          <t>manager.clozhcraft@gmail.com</t>
-        </is>
-      </c>
-      <c r="AV29" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AW29" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AX29" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hữu Quang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hữu Quang', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="AY29" t="inlineStr">
-        <is>
-          <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
-        </is>
-      </c>
-      <c r="AZ29" t="inlineStr">
-        <is>
-          <t>Quản lý vận hành</t>
-        </is>
-      </c>
-      <c r="BA29" t="inlineStr">
-        <is>
-          <t>pink</t>
-        </is>
-      </c>
-      <c r="BB29" t="inlineStr">
-        <is>
-          <t>GL=j</t>
-        </is>
-      </c>
-      <c r="BC29" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="BD29" t="inlineStr">
-        <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="BE29" t="inlineStr">
-        <is>
-          <t>dux}</t>
-        </is>
-      </c>
-      <c r="BF29" t="inlineStr">
-        <is>
-          <t>Quản trị cấp trung</t>
-        </is>
-      </c>
-      <c r="BG29" t="inlineStr">
-        <is>
-          <t>brown</t>
-        </is>
-      </c>
-      <c r="BH29" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI29" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BJ29" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="BK29" t="inlineStr">
-        <is>
-          <t>2001-08-23</t>
-        </is>
-      </c>
-      <c r="BL29" t="inlineStr"/>
-      <c r="BM29" t="inlineStr"/>
-      <c r="BN29" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="BO29" t="inlineStr"/>
-      <c r="BP29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notion_data/HO_SO_NHAN_SU.xlsx
+++ b/notion_data/HO_SO_NHAN_SU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,140 +636,135 @@
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>properties.Cơ sở.select</t>
+          <t>properties.Cơ sở.select.id</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>properties.Cơ sở.select.name</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Cơ sở.select.color</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>properties.SĐT.id</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.type</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.phone_number</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.id</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.type</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.email</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.id</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.type</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.title</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.id</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.name</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.color</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select.id</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select.name</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select.color</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.id</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.name</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.color</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Cơ sở.select.id</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Cơ sở.select.name</t>
-        </is>
-      </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>properties.Cơ sở.select.color</t>
+          <t>properties.Ngày sinh.date.start</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>properties.Ngày sinh.date.start</t>
+          <t>properties.Ngày sinh.date.end</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>properties.Ngày sinh.date.end</t>
+          <t>properties.Ngày sinh.date.time_zone</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>properties.Ngày sinh.date.time_zone</t>
+          <t>properties.Ngày bắt đầu làm việc.date.start</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>properties.Ngày bắt đầu làm việc.date.start</t>
+          <t>properties.Ngày bắt đầu làm việc.date.end</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>properties.Ngày bắt đầu làm việc.date.end</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.time_zone</t>
         </is>
@@ -793,7 +788,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-10T03:16:00.000Z</t>
+          <t>2024-07-19T07:56:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -827,7 +822,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -938,46 +933,58 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP2" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr">
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Cô Na giúp việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Na giúp việc', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
@@ -993,7 +1000,6 @@
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1158,110 +1164,109 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
       <c r="AP3" t="inlineStr">
         <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr">
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Sang sang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sang sang', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BC3" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
+      <c r="BD3" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BE3" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>|HxR</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BH3" t="inlineStr">
         <is>
           <t>Thử việc</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr">
+      <c r="BI3" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>Lj_l</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
+      <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1426,118 +1431,117 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP4" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr">
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr">
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'La Thị Ngọc Hà My ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'La Thị Ngọc Hà My ', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BC4" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>x&gt;Ke</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BH4" t="inlineStr">
         <is>
           <t>Học việc</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr">
+      <c r="BI4" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
           <t>1998-01-01</t>
         </is>
       </c>
+      <c r="BK4" t="inlineStr"/>
       <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr">
+      <c r="BM4" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
-      <c r="BP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1702,122 +1706,121 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
       <c r="AP5" t="inlineStr">
         <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>0852169606</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr">
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Thị Ngọc Mi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Thị Ngọc Mi', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="BC5" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
+      <c r="BD5" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>|HxR</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
         <is>
           <t>Thử việc</t>
         </is>
       </c>
-      <c r="BG5" t="inlineStr">
+      <c r="BI5" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
           <t>2004-01-13</t>
         </is>
       </c>
+      <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr">
+      <c r="BM5" t="inlineStr">
         <is>
           <t>2024-06-27</t>
         </is>
       </c>
+      <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1982,98 +1985,97 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>;;Tu</t>
+        </is>
+      </c>
       <c r="AP6" t="inlineStr">
         <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr">
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr">
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr">
+      <c r="AY6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
+      <c r="AZ6" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Thảo', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Thảo', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
+      <c r="BA6" t="inlineStr">
         <is>
           <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
+      <c r="BB6" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
       </c>
-      <c r="BA6" t="inlineStr">
+      <c r="BC6" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr">
+      <c r="BD6" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BC6" t="inlineStr">
+      <c r="BE6" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BD6" t="inlineStr">
+      <c r="BF6" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>;;Tu</t>
-        </is>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>OUTSIDE</t>
-        </is>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2238,118 +2240,117 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
       <c r="AP7" t="inlineStr">
         <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr">
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr">
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW7" t="inlineStr">
+      <c r="AY7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX7" t="inlineStr">
+      <c r="AZ7" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đặng Ngọc Mai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đặng Ngọc Mai', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY7" t="inlineStr">
+      <c r="BA7" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
+      <c r="BB7" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="BA7" t="inlineStr">
+      <c r="BC7" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr">
+      <c r="BD7" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC7" t="inlineStr">
+      <c r="BE7" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD7" t="inlineStr">
+      <c r="BF7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE7" t="inlineStr">
+      <c r="BG7" t="inlineStr">
         <is>
           <t>|HxR</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr">
+      <c r="BH7" t="inlineStr">
         <is>
           <t>Thử việc</t>
         </is>
       </c>
-      <c r="BG7" t="inlineStr">
+      <c r="BI7" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>Lj_l</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
           <t>2005-01-18</t>
         </is>
       </c>
+      <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr">
+      <c r="BM7" t="inlineStr">
         <is>
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2514,86 +2515,85 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP8" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr">
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr">
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW8" t="inlineStr">
+      <c r="AY8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
+      <c r="AZ8" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Hường', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Hường', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr">
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC8" t="inlineStr">
+      <c r="BE8" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD8" t="inlineStr">
+      <c r="BF8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2758,98 +2758,97 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>;;Tu</t>
+        </is>
+      </c>
       <c r="AP9" t="inlineStr">
         <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr">
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr">
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW9" t="inlineStr">
+      <c r="AY9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX9" t="inlineStr">
+      <c r="AZ9" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Ngoài', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY9" t="inlineStr">
+      <c r="BA9" t="inlineStr">
         <is>
           <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
-      <c r="AZ9" t="inlineStr">
+      <c r="BB9" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
       </c>
-      <c r="BA9" t="inlineStr">
+      <c r="BC9" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr">
+      <c r="BD9" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BC9" t="inlineStr">
+      <c r="BE9" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BD9" t="inlineStr">
+      <c r="BF9" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>;;Tu</t>
-        </is>
-      </c>
-      <c r="BI9" t="inlineStr">
-        <is>
-          <t>OUTSIDE</t>
-        </is>
-      </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3014,114 +3013,113 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP10" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr">
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AV10" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr">
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr">
+      <c r="AY10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
+      <c r="AZ10" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Pen Design ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Pen Design ', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr">
+      <c r="BA10" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AZ10" t="inlineStr">
+      <c r="BB10" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="BA10" t="inlineStr">
+      <c r="BC10" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr">
+      <c r="BD10" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BC10" t="inlineStr">
+      <c r="BE10" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BD10" t="inlineStr">
+      <c r="BF10" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BE10" t="inlineStr">
+      <c r="BG10" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr">
+      <c r="BH10" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG10" t="inlineStr">
+      <c r="BI10" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
+      <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr">
+      <c r="BM10" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
+      <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3286,118 +3284,117 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
       <c r="AP11" t="inlineStr">
         <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>0963316200</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr">
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW11" t="inlineStr">
+      <c r="AY11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
+      <c r="AZ11" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đào Vương Anh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đào Vương Anh', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY11" t="inlineStr">
+      <c r="BA11" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
+      <c r="BB11" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="BA11" t="inlineStr">
+      <c r="BC11" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr">
+      <c r="BD11" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC11" t="inlineStr">
+      <c r="BE11" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD11" t="inlineStr">
+      <c r="BF11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE11" t="inlineStr">
+      <c r="BG11" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr">
+      <c r="BH11" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG11" t="inlineStr">
+      <c r="BI11" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>Lj_l</t>
-        </is>
-      </c>
-      <c r="BI11" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
+      <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr">
+      <c r="BM11" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
       </c>
+      <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3562,114 +3559,113 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP12" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr">
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr">
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW12" t="inlineStr">
+      <c r="AY12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr">
+      <c r="AZ12" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lâm Hoàng Phú', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Hoàng Phú', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY12" t="inlineStr">
+      <c r="BA12" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
+      <c r="BB12" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr">
+      <c r="BC12" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr">
+      <c r="BD12" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC12" t="inlineStr">
+      <c r="BE12" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD12" t="inlineStr">
+      <c r="BF12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE12" t="inlineStr">
+      <c r="BG12" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF12" t="inlineStr">
+      <c r="BH12" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG12" t="inlineStr">
+      <c r="BI12" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI12" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
+      <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr">
+      <c r="BM12" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
+      <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
-      <c r="BP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3834,114 +3830,113 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
       <c r="AP13" t="inlineStr">
         <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr">
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AV13" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr">
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW13" t="inlineStr">
+      <c r="AY13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX13" t="inlineStr">
+      <c r="AZ13" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Cô Siêng giúp Việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Siêng giúp Việc', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY13" t="inlineStr">
+      <c r="BA13" t="inlineStr">
         <is>
           <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
+      <c r="BB13" t="inlineStr">
         <is>
           <t>Nhân viên hậu cần</t>
         </is>
       </c>
-      <c r="BA13" t="inlineStr">
+      <c r="BC13" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr">
+      <c r="BD13" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC13" t="inlineStr">
+      <c r="BE13" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD13" t="inlineStr">
+      <c r="BF13" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE13" t="inlineStr">
+      <c r="BG13" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF13" t="inlineStr">
+      <c r="BH13" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG13" t="inlineStr">
+      <c r="BI13" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="BI13" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="BJ13" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
+      <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr">
+      <c r="BM13" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
+      <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4106,118 +4101,117 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
       <c r="AP14" t="inlineStr">
         <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>0386381682</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr">
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW14" t="inlineStr">
+      <c r="AY14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX14" t="inlineStr">
+      <c r="AZ14" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Trần Khánh Hiệp', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trần Khánh Hiệp', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr">
+      <c r="BA14" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AZ14" t="inlineStr">
+      <c r="BB14" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BA14" t="inlineStr">
+      <c r="BC14" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr">
+      <c r="BD14" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC14" t="inlineStr">
+      <c r="BE14" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD14" t="inlineStr">
+      <c r="BF14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE14" t="inlineStr">
+      <c r="BG14" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF14" t="inlineStr">
+      <c r="BH14" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG14" t="inlineStr">
+      <c r="BI14" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="BI14" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
+      <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
       <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr">
+      <c r="BM14" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
+      <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4382,118 +4376,117 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
       <c r="AP15" t="inlineStr">
         <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>0988302615</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AV15" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr">
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW15" t="inlineStr">
+      <c r="AY15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX15" t="inlineStr">
+      <c r="AZ15" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Hoàng Thanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Hoàng Thanh', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY15" t="inlineStr">
+      <c r="BA15" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AZ15" t="inlineStr">
+      <c r="BB15" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BA15" t="inlineStr">
+      <c r="BC15" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr">
+      <c r="BD15" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC15" t="inlineStr">
+      <c r="BE15" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD15" t="inlineStr">
+      <c r="BF15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE15" t="inlineStr">
+      <c r="BG15" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF15" t="inlineStr">
+      <c r="BH15" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG15" t="inlineStr">
+      <c r="BI15" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>Lj_l</t>
-        </is>
-      </c>
-      <c r="BI15" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
+      <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="inlineStr"/>
       <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr">
+      <c r="BM15" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
       </c>
+      <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4658,118 +4651,117 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Lj_l</t>
+        </is>
+      </c>
       <c r="AP16" t="inlineStr">
         <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>0982136861</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr">
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW16" t="inlineStr">
+      <c r="AY16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX16" t="inlineStr">
+      <c r="AZ16" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Nguyễn Phúc Nam', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Phúc Nam', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY16" t="inlineStr">
+      <c r="BA16" t="inlineStr">
         <is>
           <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
-      <c r="AZ16" t="inlineStr">
+      <c r="BB16" t="inlineStr">
         <is>
           <t>Quản trị viên</t>
         </is>
       </c>
-      <c r="BA16" t="inlineStr">
+      <c r="BC16" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr">
+      <c r="BD16" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC16" t="inlineStr">
+      <c r="BE16" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD16" t="inlineStr">
+      <c r="BF16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE16" t="inlineStr">
+      <c r="BG16" t="inlineStr">
         <is>
           <t>?Jwa</t>
         </is>
       </c>
-      <c r="BF16" t="inlineStr">
+      <c r="BH16" t="inlineStr">
         <is>
           <t>Quản trị cơ sở</t>
         </is>
       </c>
-      <c r="BG16" t="inlineStr">
+      <c r="BI16" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>Lj_l</t>
-        </is>
-      </c>
-      <c r="BI16" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
+      <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr"/>
       <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
-      <c r="BN16" t="inlineStr">
+      <c r="BM16" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
+      <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4934,110 +4926,109 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>;;Tu</t>
+        </is>
+      </c>
       <c r="AP17" t="inlineStr">
         <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr">
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
+      <c r="AV17" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr">
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW17" t="inlineStr">
+      <c r="AY17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX17" t="inlineStr">
+      <c r="AZ17" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'CTV Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'CTV Ngoài', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY17" t="inlineStr">
+      <c r="BA17" t="inlineStr">
         <is>
           <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
         </is>
       </c>
-      <c r="AZ17" t="inlineStr">
+      <c r="BB17" t="inlineStr">
         <is>
           <t>CTV</t>
         </is>
       </c>
-      <c r="BA17" t="inlineStr">
+      <c r="BC17" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr">
+      <c r="BD17" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BC17" t="inlineStr">
+      <c r="BE17" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BD17" t="inlineStr">
+      <c r="BF17" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BE17" t="inlineStr">
+      <c r="BG17" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF17" t="inlineStr">
+      <c r="BH17" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG17" t="inlineStr">
+      <c r="BI17" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH17" t="inlineStr">
-        <is>
-          <t>;;Tu</t>
-        </is>
-      </c>
-      <c r="BI17" t="inlineStr">
-        <is>
-          <t>OUTSIDE</t>
-        </is>
-      </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
+      <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="inlineStr"/>
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5202,118 +5193,117 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
       <c r="AP18" t="inlineStr">
         <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>0907058203</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AV18" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr">
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW18" t="inlineStr">
+      <c r="AY18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX18" t="inlineStr">
+      <c r="AZ18" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Kha Như Huỳnh ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Kha Như Huỳnh ', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY18" t="inlineStr">
+      <c r="BA18" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AZ18" t="inlineStr">
+      <c r="BB18" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BA18" t="inlineStr">
+      <c r="BC18" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr">
+      <c r="BD18" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC18" t="inlineStr">
+      <c r="BE18" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD18" t="inlineStr">
+      <c r="BF18" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE18" t="inlineStr">
+      <c r="BG18" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF18" t="inlineStr">
+      <c r="BH18" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG18" t="inlineStr">
+      <c r="BI18" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="BI18" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
+      <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr">
+      <c r="BM18" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
+      <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
-      <c r="BP18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5478,118 +5468,117 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP19" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>0799609322</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AV19" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr">
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW19" t="inlineStr">
+      <c r="AY19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX19" t="inlineStr">
+      <c r="AZ19" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Trương Lâm Khanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trương Lâm Khanh', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY19" t="inlineStr">
+      <c r="BA19" t="inlineStr">
         <is>
           <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
         </is>
       </c>
-      <c r="AZ19" t="inlineStr">
+      <c r="BB19" t="inlineStr">
         <is>
           <t>Nhân viên hậu cần</t>
         </is>
       </c>
-      <c r="BA19" t="inlineStr">
+      <c r="BC19" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr">
+      <c r="BD19" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC19" t="inlineStr">
+      <c r="BE19" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD19" t="inlineStr">
+      <c r="BF19" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE19" t="inlineStr">
+      <c r="BG19" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF19" t="inlineStr">
+      <c r="BH19" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG19" t="inlineStr">
+      <c r="BI19" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH19" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI19" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BJ19" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
+      <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="inlineStr"/>
       <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
-      <c r="BN19" t="inlineStr">
+      <c r="BM19" t="inlineStr">
         <is>
           <t>2024-02-15</t>
         </is>
       </c>
+      <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5754,118 +5743,117 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP20" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>0912931220</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AV20" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr">
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW20" t="inlineStr">
+      <c r="AY20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX20" t="inlineStr">
+      <c r="AZ20" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đỗ Thị Huyền Trân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Thị Huyền Trân', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY20" t="inlineStr">
+      <c r="BA20" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AZ20" t="inlineStr">
+      <c r="BB20" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BA20" t="inlineStr">
+      <c r="BC20" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB20" t="inlineStr">
+      <c r="BD20" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC20" t="inlineStr">
+      <c r="BE20" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD20" t="inlineStr">
+      <c r="BF20" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE20" t="inlineStr">
+      <c r="BG20" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF20" t="inlineStr">
+      <c r="BH20" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG20" t="inlineStr">
+      <c r="BI20" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH20" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI20" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BJ20" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
+      <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
-      <c r="BN20" t="inlineStr">
+      <c r="BM20" t="inlineStr">
         <is>
           <t>2024-02-15</t>
         </is>
       </c>
+      <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
-      <c r="BP20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6030,118 +6018,117 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>VWB;</t>
+        </is>
+      </c>
       <c r="AP21" t="inlineStr">
         <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>0879533217</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AV21" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="inlineStr">
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW21" t="inlineStr">
+      <c r="AY21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX21" t="inlineStr">
+      <c r="AZ21" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Đình Hậu', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Đình Hậu', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY21" t="inlineStr">
+      <c r="BA21" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="AZ21" t="inlineStr">
+      <c r="BB21" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BA21" t="inlineStr">
+      <c r="BC21" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BB21" t="inlineStr">
+      <c r="BD21" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC21" t="inlineStr">
+      <c r="BE21" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD21" t="inlineStr">
+      <c r="BF21" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE21" t="inlineStr">
+      <c r="BG21" t="inlineStr">
         <is>
           <t>?Jwa</t>
         </is>
       </c>
-      <c r="BF21" t="inlineStr">
+      <c r="BH21" t="inlineStr">
         <is>
           <t>Quản trị cơ sở</t>
         </is>
       </c>
-      <c r="BG21" t="inlineStr">
+      <c r="BI21" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BH21" t="inlineStr">
-        <is>
-          <t>VWB;</t>
-        </is>
-      </c>
-      <c r="BI21" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="BJ21" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
+      <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
       <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
-      <c r="BN21" t="inlineStr">
+      <c r="BM21" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
+      <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
-      <c r="BP21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6306,114 +6293,113 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP22" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr">
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
+      <c r="AV22" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr">
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW22" t="inlineStr">
+      <c r="AY22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX22" t="inlineStr">
+      <c r="AZ22" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Văn Linh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Văn Linh', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY22" t="inlineStr">
+      <c r="BA22" t="inlineStr">
         <is>
           <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
-      <c r="AZ22" t="inlineStr">
+      <c r="BB22" t="inlineStr">
         <is>
           <t>Quản lý vận hành</t>
         </is>
       </c>
-      <c r="BA22" t="inlineStr">
+      <c r="BC22" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="BB22" t="inlineStr">
+      <c r="BD22" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC22" t="inlineStr">
+      <c r="BE22" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD22" t="inlineStr">
+      <c r="BF22" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE22" t="inlineStr">
+      <c r="BG22" t="inlineStr">
         <is>
           <t>]EdZ</t>
         </is>
       </c>
-      <c r="BF22" t="inlineStr">
+      <c r="BH22" t="inlineStr">
         <is>
           <t>Quản trị cấp cao</t>
         </is>
       </c>
-      <c r="BG22" t="inlineStr">
+      <c r="BI22" t="inlineStr">
         <is>
           <t>gray</t>
         </is>
       </c>
-      <c r="BH22" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI22" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BJ22" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
+      <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="inlineStr"/>
-      <c r="BM22" t="inlineStr"/>
-      <c r="BN22" t="inlineStr">
+      <c r="BM22" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
+      <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
-      <c r="BP22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6578,114 +6564,113 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP23" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr">
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AV23" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="inlineStr">
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW23" t="inlineStr">
+      <c r="AY23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX23" t="inlineStr">
+      <c r="AZ23" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Phạm Thanh Hoàng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phạm Thanh Hoàng', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY23" t="inlineStr">
+      <c r="BA23" t="inlineStr">
         <is>
           <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
-      <c r="AZ23" t="inlineStr">
+      <c r="BB23" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
       </c>
-      <c r="BA23" t="inlineStr">
+      <c r="BC23" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BB23" t="inlineStr">
+      <c r="BD23" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC23" t="inlineStr">
+      <c r="BE23" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD23" t="inlineStr">
+      <c r="BF23" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE23" t="inlineStr">
+      <c r="BG23" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF23" t="inlineStr">
+      <c r="BH23" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG23" t="inlineStr">
+      <c r="BI23" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH23" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI23" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BJ23" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
+      <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="inlineStr"/>
-      <c r="BM23" t="inlineStr"/>
-      <c r="BN23" t="inlineStr">
+      <c r="BM23" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
+      <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
-      <c r="BP23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6850,114 +6835,113 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP24" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr">
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AV24" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="inlineStr">
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW24" t="inlineStr">
+      <c r="AY24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX24" t="inlineStr">
+      <c r="AZ24" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Mỹ Hằng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Mỹ Hằng', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY24" t="inlineStr">
+      <c r="BA24" t="inlineStr">
         <is>
           <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
-      <c r="AZ24" t="inlineStr">
+      <c r="BB24" t="inlineStr">
         <is>
           <t>Quản lý vận hành</t>
         </is>
       </c>
-      <c r="BA24" t="inlineStr">
+      <c r="BC24" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="BB24" t="inlineStr">
+      <c r="BD24" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC24" t="inlineStr">
+      <c r="BE24" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD24" t="inlineStr">
+      <c r="BF24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE24" t="inlineStr">
+      <c r="BG24" t="inlineStr">
         <is>
           <t>]EdZ</t>
         </is>
       </c>
-      <c r="BF24" t="inlineStr">
+      <c r="BH24" t="inlineStr">
         <is>
           <t>Quản trị cấp cao</t>
         </is>
       </c>
-      <c r="BG24" t="inlineStr">
+      <c r="BI24" t="inlineStr">
         <is>
           <t>gray</t>
         </is>
       </c>
-      <c r="BH24" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI24" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="BJ24" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
+      <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="inlineStr"/>
       <c r="BL24" t="inlineStr"/>
-      <c r="BM24" t="inlineStr"/>
-      <c r="BN24" t="inlineStr">
+      <c r="BM24" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
+      <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
-      <c r="BP24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7122,122 +7106,121 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP25" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>0898833566</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="inlineStr">
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW25" t="inlineStr">
+      <c r="AY25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX25" t="inlineStr">
+      <c r="AZ25" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hoàng Yến Quyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hoàng Yến Quyên', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY25" t="inlineStr">
+      <c r="BA25" t="inlineStr">
         <is>
           <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
-      <c r="AZ25" t="inlineStr">
+      <c r="BB25" t="inlineStr">
         <is>
           <t>Quản trị viên</t>
         </is>
       </c>
-      <c r="BA25" t="inlineStr">
+      <c r="BC25" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BB25" t="inlineStr">
+      <c r="BD25" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BC25" t="inlineStr">
+      <c r="BE25" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BD25" t="inlineStr">
+      <c r="BF25" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BE25" t="inlineStr">
+      <c r="BG25" t="inlineStr">
         <is>
           <t>?Jwa</t>
         </is>
       </c>
-      <c r="BF25" t="inlineStr">
+      <c r="BH25" t="inlineStr">
         <is>
           <t>Quản trị cơ sở</t>
         </is>
       </c>
-      <c r="BG25" t="inlineStr">
+      <c r="BI25" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BH25" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI25" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
       <c r="BJ25" t="inlineStr">
         <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="BK25" t="inlineStr">
-        <is>
           <t>2002-08-15</t>
         </is>
       </c>
+      <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="inlineStr"/>
-      <c r="BN25" t="inlineStr">
+      <c r="BM25" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
+      <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="inlineStr"/>
-      <c r="BP25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7402,110 +7385,109 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>;;Tu</t>
+        </is>
+      </c>
       <c r="AP26" t="inlineStr">
         <is>
+          <t>OUTSIDE</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr">
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT26" t="inlineStr">
+      <c r="AV26" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="inlineStr">
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW26" t="inlineStr">
+      <c r="AY26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX26" t="inlineStr">
+      <c r="AZ26" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Thạch Hoàng Nhân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thạch Hoàng Nhân', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY26" t="inlineStr">
+      <c r="BA26" t="inlineStr">
         <is>
           <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
         </is>
       </c>
-      <c r="AZ26" t="inlineStr">
+      <c r="BB26" t="inlineStr">
         <is>
           <t>CTV</t>
         </is>
       </c>
-      <c r="BA26" t="inlineStr">
+      <c r="BC26" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="BB26" t="inlineStr">
+      <c r="BD26" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BC26" t="inlineStr">
+      <c r="BE26" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BD26" t="inlineStr">
+      <c r="BF26" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BE26" t="inlineStr">
+      <c r="BG26" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF26" t="inlineStr">
+      <c r="BH26" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG26" t="inlineStr">
+      <c r="BI26" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH26" t="inlineStr">
-        <is>
-          <t>;;Tu</t>
-        </is>
-      </c>
-      <c r="BI26" t="inlineStr">
-        <is>
-          <t>OUTSIDE</t>
-        </is>
-      </c>
-      <c r="BJ26" t="inlineStr">
-        <is>
-          <t>yellow</t>
-        </is>
-      </c>
+      <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="inlineStr"/>
       <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
-      <c r="BP26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7670,126 +7652,125 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP27" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>0386756091</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT27" t="inlineStr">
+      <c r="AV27" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU27" t="inlineStr">
+      <c r="AW27" t="inlineStr">
         <is>
           <t>hai.mda01@gmail.com</t>
         </is>
       </c>
-      <c r="AV27" t="inlineStr">
+      <c r="AX27" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW27" t="inlineStr">
+      <c r="AY27" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX27" t="inlineStr">
+      <c r="AZ27" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đỗ Tiến Hải', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Tiến Hải', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY27" t="inlineStr">
+      <c r="BA27" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="AZ27" t="inlineStr">
+      <c r="BB27" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="BA27" t="inlineStr">
+      <c r="BC27" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BB27" t="inlineStr">
+      <c r="BD27" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BC27" t="inlineStr">
+      <c r="BE27" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BD27" t="inlineStr">
+      <c r="BF27" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BE27" t="inlineStr">
+      <c r="BG27" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BF27" t="inlineStr">
+      <c r="BH27" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BG27" t="inlineStr">
+      <c r="BI27" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BH27" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI27" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
       <c r="BJ27" t="inlineStr">
         <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="BK27" t="inlineStr">
-        <is>
           <t>2001-11-02</t>
         </is>
       </c>
+      <c r="BK27" t="inlineStr"/>
       <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="inlineStr"/>
-      <c r="BN27" t="inlineStr">
+      <c r="BM27" t="inlineStr">
         <is>
           <t>2024-05-01</t>
         </is>
       </c>
+      <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr"/>
-      <c r="BP27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7954,126 +7935,125 @@
           <t>select</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>KqT_</t>
+        </is>
+      </c>
       <c r="AP28" t="inlineStr">
         <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>0326665814</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AU28" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr">
+      <c r="AV28" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AU28" t="inlineStr">
+      <c r="AW28" t="inlineStr">
         <is>
           <t>manager.clozhcraft@gmail.com</t>
         </is>
       </c>
-      <c r="AV28" t="inlineStr">
+      <c r="AX28" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AW28" t="inlineStr">
+      <c r="AY28" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AX28" t="inlineStr">
+      <c r="AZ28" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hữu Quang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hữu Quang', 'href': None}]</t>
         </is>
       </c>
-      <c r="AY28" t="inlineStr">
+      <c r="BA28" t="inlineStr">
         <is>
           <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
-      <c r="AZ28" t="inlineStr">
+      <c r="BB28" t="inlineStr">
         <is>
           <t>Quản lý vận hành</t>
         </is>
       </c>
-      <c r="BA28" t="inlineStr">
+      <c r="BC28" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="BB28" t="inlineStr">
+      <c r="BD28" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BC28" t="inlineStr">
+      <c r="BE28" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BD28" t="inlineStr">
+      <c r="BF28" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BE28" t="inlineStr">
+      <c r="BG28" t="inlineStr">
         <is>
           <t>dux}</t>
         </is>
       </c>
-      <c r="BF28" t="inlineStr">
+      <c r="BH28" t="inlineStr">
         <is>
           <t>Quản trị cấp trung</t>
         </is>
       </c>
-      <c r="BG28" t="inlineStr">
+      <c r="BI28" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="BH28" t="inlineStr">
-        <is>
-          <t>KqT_</t>
-        </is>
-      </c>
-      <c r="BI28" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
       <c r="BJ28" t="inlineStr">
         <is>
-          <t>purple</t>
-        </is>
-      </c>
-      <c r="BK28" t="inlineStr">
-        <is>
           <t>2001-08-23</t>
         </is>
       </c>
+      <c r="BK28" t="inlineStr"/>
       <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="inlineStr"/>
-      <c r="BN28" t="inlineStr">
+      <c r="BM28" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
+      <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
-      <c r="BP28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notion_data/HO_SO_NHAN_SU.xlsx
+++ b/notion_data/HO_SO_NHAN_SU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO28"/>
+  <dimension ref="A1:BU28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,225 +546,255 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>properties.Tỉ lệ đạt KPI.id</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Tỉ lệ đạt KPI.type</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Tỉ lệ đạt KPI.number</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>properties.Chức vụ.id</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.type</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.id</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.type</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>properties.KPI.id</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>properties.KPI.type</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>properties.KPI.number</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.id</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.type</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.id</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.type</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.id</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.type</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.unique_id.prefix</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã nhân viên.unique_id.number</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.id</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.id</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.name</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>properties.Cơ sở.select.color</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.id</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.type</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>properties.SĐT.phone_number</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.id</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.type</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>properties.Email.email</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.id</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.type</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>properties.Họ và tên.title</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.id</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.name</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>properties.Chức vụ.select.color</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select.id</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select.name</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>properties.Hình thức làm việc.select.color</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.id</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.name</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>properties.Phân cấp.select.color</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.start</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.end</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày sinh.date.time_zone</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.start</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.end</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>properties.Ngày bắt đầu làm việc.date.time_zone</t>
         </is>
@@ -863,18 +893,18 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -885,7 +915,7 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -896,101 +926,117 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL2" t="n">
+      <c r="AR2" t="n">
         <v>42</v>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr">
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr">
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+      <c r="BE2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Cô Na giúp việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Na giúp việc', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
@@ -1000,6 +1046,12 @@
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1094,18 +1146,18 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1116,7 +1168,7 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1127,146 +1179,168 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL3" t="n">
+      <c r="AR3" t="n">
         <v>40</v>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
         <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr">
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr">
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="BE3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Sang sang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Sang sang', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
+      <c r="BH3" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BI3" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BK3" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BL3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr">
+      <c r="BM3" t="inlineStr">
         <is>
           <t>|HxR</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
+      <c r="BN3" t="inlineStr">
         <is>
           <t>Thử việc</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BO3" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1361,18 +1435,18 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1383,7 +1457,7 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1394,154 +1468,176 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL4" t="n">
+      <c r="AR4" t="n">
         <v>39</v>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr">
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr">
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'La Thị Ngọc Hà My ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'La Thị Ngọc Hà My ', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="BH4" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BI4" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
+      <c r="BJ4" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BK4" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BL4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr">
+      <c r="BM4" t="inlineStr">
         <is>
           <t>x&gt;Ke</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
         <is>
           <t>Học việc</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BO4" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
         <is>
           <t>1998-01-01</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr">
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr"/>
-      <c r="BO4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1636,18 +1732,18 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1658,7 +1754,7 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1669,158 +1765,180 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL5" t="n">
+      <c r="AR5" t="n">
         <v>38</v>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
         <is>
           <t>VWB;</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>0852169606</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr">
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Thị Ngọc Mi', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Thị Ngọc Mi', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr">
+      <c r="BI5" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
+      <c r="BJ5" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BK5" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BL5" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG5" t="inlineStr">
+      <c r="BM5" t="inlineStr">
         <is>
           <t>|HxR</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
+      <c r="BN5" t="inlineStr">
         <is>
           <t>Thử việc</t>
         </is>
       </c>
-      <c r="BI5" t="inlineStr">
+      <c r="BO5" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
+      <c r="BP5" t="inlineStr">
         <is>
           <t>2004-01-13</t>
         </is>
       </c>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr">
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr">
         <is>
           <t>2024-06-27</t>
         </is>
       </c>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1915,18 +2033,18 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1937,7 +2055,7 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1948,134 +2066,156 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL6" t="n">
+      <c r="AR6" t="n">
         <v>37</v>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
         <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AW6" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AX6" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AY6" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr">
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr">
+      <c r="BB6" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr">
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
+      <c r="BE6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
+      <c r="BF6" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Thảo', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Thảo', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA6" t="inlineStr">
+      <c r="BG6" t="inlineStr">
         <is>
           <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr">
+      <c r="BH6" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
       </c>
-      <c r="BC6" t="inlineStr">
+      <c r="BI6" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BD6" t="inlineStr">
+      <c r="BJ6" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BE6" t="inlineStr">
+      <c r="BK6" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
+      <c r="BL6" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2170,18 +2310,18 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2192,7 +2332,7 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2203,154 +2343,176 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL7" t="n">
+      <c r="AR7" t="n">
         <v>36</v>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
         <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AV7" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AW7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AX7" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AY7" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr">
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV7" t="inlineStr">
+      <c r="BB7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr">
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY7" t="inlineStr">
+      <c r="BE7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
+      <c r="BF7" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đặng Ngọc Mai', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đặng Ngọc Mai', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA7" t="inlineStr">
+      <c r="BG7" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr">
+      <c r="BH7" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="BC7" t="inlineStr">
+      <c r="BI7" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BD7" t="inlineStr">
+      <c r="BJ7" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE7" t="inlineStr">
+      <c r="BK7" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr">
+      <c r="BL7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG7" t="inlineStr">
+      <c r="BM7" t="inlineStr">
         <is>
           <t>|HxR</t>
         </is>
       </c>
-      <c r="BH7" t="inlineStr">
+      <c r="BN7" t="inlineStr">
         <is>
           <t>Thử việc</t>
         </is>
       </c>
-      <c r="BI7" t="inlineStr">
+      <c r="BO7" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="BJ7" t="inlineStr">
+      <c r="BP7" t="inlineStr">
         <is>
           <t>2005-01-18</t>
         </is>
       </c>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr">
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr">
         <is>
           <t>2024-06-17</t>
         </is>
       </c>
-      <c r="BN7" t="inlineStr"/>
-      <c r="BO7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2445,18 +2607,18 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2467,7 +2629,7 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2478,122 +2640,144 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL8" t="n">
+      <c r="AR8" t="n">
         <v>35</v>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AW8" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AX8" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AY8" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr">
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV8" t="inlineStr">
+      <c r="BB8" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Hường', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Hường', 'href': None}]</t>
-        </is>
-      </c>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>t;`n</t>
+          <t>title</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>Onsite</t>
+          <t>title</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Hường', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Hường', 'href': None}]</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>t;`n</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>Onsite</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2688,18 +2872,18 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2710,7 +2894,7 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2721,134 +2905,156 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL9" t="n">
+      <c r="AR9" t="n">
         <v>34</v>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
         <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AW9" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AX9" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AY9" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr">
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV9" t="inlineStr">
+      <c r="BB9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr">
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY9" t="inlineStr">
+      <c r="BE9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ9" t="inlineStr">
+      <c r="BF9" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Bác Sĩ Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Bác Sĩ Ngoài', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA9" t="inlineStr">
+      <c r="BG9" t="inlineStr">
         <is>
           <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr">
+      <c r="BH9" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
       </c>
-      <c r="BC9" t="inlineStr">
+      <c r="BI9" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BD9" t="inlineStr">
+      <c r="BJ9" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BE9" t="inlineStr">
+      <c r="BK9" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BF9" t="inlineStr">
+      <c r="BL9" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2943,18 +3149,18 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2965,7 +3171,7 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2976,150 +3182,172 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL10" t="n">
+      <c r="AR10" t="n">
         <v>33</v>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AV10" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AW10" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AX10" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AY10" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr">
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="BB10" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr">
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr">
+      <c r="BE10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ10" t="inlineStr">
+      <c r="BF10" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Pen Design ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Pen Design ', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA10" t="inlineStr">
+      <c r="BG10" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr">
+      <c r="BH10" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="BC10" t="inlineStr">
+      <c r="BI10" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BD10" t="inlineStr">
+      <c r="BJ10" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BE10" t="inlineStr">
+      <c r="BK10" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr">
+      <c r="BL10" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BG10" t="inlineStr">
+      <c r="BM10" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH10" t="inlineStr">
+      <c r="BN10" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI10" t="inlineStr">
+      <c r="BO10" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr">
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3214,18 +3442,18 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -3236,7 +3464,7 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3247,154 +3475,176 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL11" t="n">
+      <c r="AR11" t="n">
         <v>30</v>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
         <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AW11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AX11" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AY11" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AZ11" t="inlineStr">
         <is>
           <t>0963316200</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
+      <c r="BA11" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
+      <c r="BB11" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr">
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY11" t="inlineStr">
+      <c r="BE11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
+      <c r="BF11" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đào Vương Anh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đào Vương Anh', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA11" t="inlineStr">
+      <c r="BG11" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr">
+      <c r="BH11" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="BC11" t="inlineStr">
+      <c r="BI11" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BD11" t="inlineStr">
+      <c r="BJ11" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE11" t="inlineStr">
+      <c r="BK11" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr">
+      <c r="BL11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG11" t="inlineStr">
+      <c r="BM11" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH11" t="inlineStr">
+      <c r="BN11" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI11" t="inlineStr">
+      <c r="BO11" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr">
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
       </c>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3489,18 +3739,18 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -3511,7 +3761,7 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3522,150 +3772,172 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL12" t="n">
+      <c r="AR12" t="n">
         <v>29</v>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AW12" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AX12" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AY12" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr">
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV12" t="inlineStr">
+      <c r="BB12" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr">
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY12" t="inlineStr">
+      <c r="BE12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
+      <c r="BF12" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lâm Hoàng Phú', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Hoàng Phú', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr">
+      <c r="BG12" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr">
+      <c r="BH12" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="BC12" t="inlineStr">
+      <c r="BI12" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BD12" t="inlineStr">
+      <c r="BJ12" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE12" t="inlineStr">
+      <c r="BK12" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF12" t="inlineStr">
+      <c r="BL12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG12" t="inlineStr">
+      <c r="BM12" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH12" t="inlineStr">
+      <c r="BN12" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI12" t="inlineStr">
+      <c r="BO12" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr">
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="BN12" t="inlineStr"/>
-      <c r="BO12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3760,18 +4032,18 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -3782,7 +4054,7 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3793,150 +4065,172 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL13" t="n">
+      <c r="AR13" t="n">
         <v>27</v>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
         <is>
           <t>VWB;</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AV13" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AW13" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AX13" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AY13" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr">
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
+      <c r="BB13" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr">
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY13" t="inlineStr">
+      <c r="BE13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
+      <c r="BF13" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Cô Siêng giúp Việc', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Cô Siêng giúp Việc', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA13" t="inlineStr">
+      <c r="BG13" t="inlineStr">
         <is>
           <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr">
+      <c r="BH13" t="inlineStr">
         <is>
           <t>Nhân viên hậu cần</t>
         </is>
       </c>
-      <c r="BC13" t="inlineStr">
+      <c r="BI13" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="BD13" t="inlineStr">
+      <c r="BJ13" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE13" t="inlineStr">
+      <c r="BK13" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF13" t="inlineStr">
+      <c r="BL13" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG13" t="inlineStr">
+      <c r="BM13" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH13" t="inlineStr">
+      <c r="BN13" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI13" t="inlineStr">
+      <c r="BO13" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr">
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4031,18 +4325,18 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -4053,7 +4347,7 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -4064,154 +4358,176 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL14" t="n">
+      <c r="AR14" t="n">
         <v>26</v>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
         <is>
           <t>VWB;</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AW14" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AX14" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AY14" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AZ14" t="inlineStr">
         <is>
           <t>0386381682</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr">
+      <c r="BA14" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
+      <c r="BB14" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr">
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr">
+      <c r="BE14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ14" t="inlineStr">
+      <c r="BF14" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Trần Khánh Hiệp', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trần Khánh Hiệp', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA14" t="inlineStr">
+      <c r="BG14" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr">
+      <c r="BH14" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BC14" t="inlineStr">
+      <c r="BI14" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BD14" t="inlineStr">
+      <c r="BJ14" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE14" t="inlineStr">
+      <c r="BK14" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF14" t="inlineStr">
+      <c r="BL14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG14" t="inlineStr">
+      <c r="BM14" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH14" t="inlineStr">
+      <c r="BN14" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI14" t="inlineStr">
+      <c r="BO14" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr">
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4306,18 +4622,18 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -4328,7 +4644,7 @@
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -4339,154 +4655,176 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL15" t="n">
+      <c r="AR15" t="n">
         <v>23</v>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
         <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AV15" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AW15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AX15" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AY15" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AZ15" t="inlineStr">
         <is>
           <t>0988302615</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr">
+      <c r="BA15" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV15" t="inlineStr">
+      <c r="BB15" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr">
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY15" t="inlineStr">
+      <c r="BE15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ15" t="inlineStr">
+      <c r="BF15" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Hoàng Thanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Hoàng Thanh', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA15" t="inlineStr">
+      <c r="BG15" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr">
+      <c r="BH15" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BC15" t="inlineStr">
+      <c r="BI15" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BD15" t="inlineStr">
+      <c r="BJ15" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE15" t="inlineStr">
+      <c r="BK15" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF15" t="inlineStr">
+      <c r="BL15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG15" t="inlineStr">
+      <c r="BM15" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH15" t="inlineStr">
+      <c r="BN15" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI15" t="inlineStr">
+      <c r="BO15" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr">
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr">
         <is>
           <t>2024-02-01</t>
         </is>
       </c>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4581,18 +4919,18 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -4603,7 +4941,7 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -4614,154 +4952,176 @@
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL16" t="n">
+      <c r="AR16" t="n">
         <v>22</v>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
         <is>
           <t>Lj_l</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AW16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AX16" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AY16" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AZ16" t="inlineStr">
         <is>
           <t>0982136861</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr">
+      <c r="BA16" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV16" t="inlineStr">
+      <c r="BB16" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr">
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY16" t="inlineStr">
+      <c r="BE16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ16" t="inlineStr">
+      <c r="BF16" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Nguyễn Phúc Nam', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Phúc Nam', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA16" t="inlineStr">
+      <c r="BG16" t="inlineStr">
         <is>
           <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr">
+      <c r="BH16" t="inlineStr">
         <is>
           <t>Quản trị viên</t>
         </is>
       </c>
-      <c r="BC16" t="inlineStr">
+      <c r="BI16" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BD16" t="inlineStr">
+      <c r="BJ16" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE16" t="inlineStr">
+      <c r="BK16" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF16" t="inlineStr">
+      <c r="BL16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG16" t="inlineStr">
+      <c r="BM16" t="inlineStr">
         <is>
           <t>?Jwa</t>
         </is>
       </c>
-      <c r="BH16" t="inlineStr">
+      <c r="BN16" t="inlineStr">
         <is>
           <t>Quản trị cơ sở</t>
         </is>
       </c>
-      <c r="BI16" t="inlineStr">
+      <c r="BO16" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr">
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="BN16" t="inlineStr"/>
-      <c r="BO16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4856,18 +5216,18 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -4878,7 +5238,7 @@
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4889,146 +5249,168 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL17" t="n">
+      <c r="AR17" t="n">
         <v>20</v>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
         <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AV17" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AW17" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AX17" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AY17" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr">
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV17" t="inlineStr">
+      <c r="BB17" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr">
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY17" t="inlineStr">
+      <c r="BE17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ17" t="inlineStr">
+      <c r="BF17" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'CTV Ngoài', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'CTV Ngoài', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA17" t="inlineStr">
+      <c r="BG17" t="inlineStr">
         <is>
           <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr">
+      <c r="BH17" t="inlineStr">
         <is>
           <t>CTV</t>
         </is>
       </c>
-      <c r="BC17" t="inlineStr">
+      <c r="BI17" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="BD17" t="inlineStr">
+      <c r="BJ17" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BE17" t="inlineStr">
+      <c r="BK17" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BF17" t="inlineStr">
+      <c r="BL17" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BG17" t="inlineStr">
+      <c r="BM17" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH17" t="inlineStr">
+      <c r="BN17" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI17" t="inlineStr">
+      <c r="BO17" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5123,18 +5505,18 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -5145,7 +5527,7 @@
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -5156,154 +5538,176 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL18" t="n">
+      <c r="AR18" t="n">
         <v>16</v>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
         <is>
           <t>VWB;</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AV18" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AW18" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AX18" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AY18" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AZ18" t="inlineStr">
         <is>
           <t>0907058203</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr">
+      <c r="BA18" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV18" t="inlineStr">
+      <c r="BB18" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr">
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY18" t="inlineStr">
+      <c r="BE18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ18" t="inlineStr">
+      <c r="BF18" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Kha Như Huỳnh ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Kha Như Huỳnh ', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA18" t="inlineStr">
+      <c r="BG18" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr">
+      <c r="BH18" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BC18" t="inlineStr">
+      <c r="BI18" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BD18" t="inlineStr">
+      <c r="BJ18" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE18" t="inlineStr">
+      <c r="BK18" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF18" t="inlineStr">
+      <c r="BL18" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG18" t="inlineStr">
+      <c r="BM18" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH18" t="inlineStr">
+      <c r="BN18" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI18" t="inlineStr">
+      <c r="BO18" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr">
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="BN18" t="inlineStr"/>
-      <c r="BO18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5398,18 +5802,18 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -5420,7 +5824,7 @@
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -5431,154 +5835,176 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL19" t="n">
+      <c r="AR19" t="n">
         <v>15</v>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AV19" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AW19" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AX19" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AY19" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AZ19" t="inlineStr">
         <is>
           <t>0799609322</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr">
+      <c r="BA19" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr">
+      <c r="BB19" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr">
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY19" t="inlineStr">
+      <c r="BE19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ19" t="inlineStr">
+      <c r="BF19" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Trương Lâm Khanh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Trương Lâm Khanh', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA19" t="inlineStr">
+      <c r="BG19" t="inlineStr">
         <is>
           <t>6850ef6c-4b94-492a-9b5d-83b8e66718ad</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr">
+      <c r="BH19" t="inlineStr">
         <is>
           <t>Nhân viên hậu cần</t>
         </is>
       </c>
-      <c r="BC19" t="inlineStr">
+      <c r="BI19" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="BD19" t="inlineStr">
+      <c r="BJ19" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE19" t="inlineStr">
+      <c r="BK19" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF19" t="inlineStr">
+      <c r="BL19" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG19" t="inlineStr">
+      <c r="BM19" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH19" t="inlineStr">
+      <c r="BN19" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI19" t="inlineStr">
+      <c r="BO19" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr">
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr">
         <is>
           <t>2024-02-15</t>
         </is>
       </c>
-      <c r="BN19" t="inlineStr"/>
-      <c r="BO19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5673,18 +6099,18 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -5695,7 +6121,7 @@
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -5706,154 +6132,176 @@
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL20" t="n">
+      <c r="AR20" t="n">
         <v>11</v>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AV20" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AW20" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AX20" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AY20" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AZ20" t="inlineStr">
         <is>
           <t>0912931220</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr">
+      <c r="BA20" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV20" t="inlineStr">
+      <c r="BB20" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr">
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY20" t="inlineStr">
+      <c r="BE20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ20" t="inlineStr">
+      <c r="BF20" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đỗ Thị Huyền Trân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Thị Huyền Trân', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA20" t="inlineStr">
+      <c r="BG20" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="BB20" t="inlineStr">
+      <c r="BH20" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BC20" t="inlineStr">
+      <c r="BI20" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BD20" t="inlineStr">
+      <c r="BJ20" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE20" t="inlineStr">
+      <c r="BK20" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF20" t="inlineStr">
+      <c r="BL20" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG20" t="inlineStr">
+      <c r="BM20" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH20" t="inlineStr">
+      <c r="BN20" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI20" t="inlineStr">
+      <c r="BO20" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr">
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr">
         <is>
           <t>2024-02-15</t>
         </is>
       </c>
-      <c r="BN20" t="inlineStr"/>
-      <c r="BO20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5948,18 +6396,18 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -5970,7 +6418,7 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -5981,154 +6429,176 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL21" t="n">
+      <c r="AR21" t="n">
         <v>10</v>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
         <is>
           <t>VWB;</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AV21" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AW21" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AX21" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AY21" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AZ21" t="inlineStr">
         <is>
           <t>0879533217</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr">
+      <c r="BA21" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV21" t="inlineStr">
+      <c r="BB21" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr">
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY21" t="inlineStr">
+      <c r="BE21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ21" t="inlineStr">
+      <c r="BF21" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Đình Hậu', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Đình Hậu', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA21" t="inlineStr">
+      <c r="BG21" t="inlineStr">
         <is>
           <t>b5f49812-f001-432a-8ae0-cad4541f5f7c</t>
         </is>
       </c>
-      <c r="BB21" t="inlineStr">
+      <c r="BH21" t="inlineStr">
         <is>
           <t>Sale &amp; Lễ Tân</t>
         </is>
       </c>
-      <c r="BC21" t="inlineStr">
+      <c r="BI21" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="BD21" t="inlineStr">
+      <c r="BJ21" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE21" t="inlineStr">
+      <c r="BK21" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF21" t="inlineStr">
+      <c r="BL21" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG21" t="inlineStr">
+      <c r="BM21" t="inlineStr">
         <is>
           <t>?Jwa</t>
         </is>
       </c>
-      <c r="BH21" t="inlineStr">
+      <c r="BN21" t="inlineStr">
         <is>
           <t>Quản trị cơ sở</t>
         </is>
       </c>
-      <c r="BI21" t="inlineStr">
+      <c r="BO21" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr">
+      <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="BN21" t="inlineStr"/>
-      <c r="BO21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6223,18 +6693,18 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -6245,7 +6715,7 @@
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -6256,150 +6726,172 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL22" t="n">
+      <c r="AR22" t="n">
         <v>9</v>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AV22" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AW22" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AX22" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AY22" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr">
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV22" t="inlineStr">
+      <c r="BB22" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr">
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY22" t="inlineStr">
+      <c r="BE22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ22" t="inlineStr">
+      <c r="BF22" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lê Văn Linh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lê Văn Linh', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA22" t="inlineStr">
+      <c r="BG22" t="inlineStr">
         <is>
           <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
-      <c r="BB22" t="inlineStr">
+      <c r="BH22" t="inlineStr">
         <is>
           <t>Quản lý vận hành</t>
         </is>
       </c>
-      <c r="BC22" t="inlineStr">
+      <c r="BI22" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="BD22" t="inlineStr">
+      <c r="BJ22" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE22" t="inlineStr">
+      <c r="BK22" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF22" t="inlineStr">
+      <c r="BL22" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG22" t="inlineStr">
+      <c r="BM22" t="inlineStr">
         <is>
           <t>]EdZ</t>
         </is>
       </c>
-      <c r="BH22" t="inlineStr">
+      <c r="BN22" t="inlineStr">
         <is>
           <t>Quản trị cấp cao</t>
         </is>
       </c>
-      <c r="BI22" t="inlineStr">
+      <c r="BO22" t="inlineStr">
         <is>
           <t>gray</t>
         </is>
       </c>
-      <c r="BJ22" t="inlineStr"/>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr"/>
-      <c r="BM22" t="inlineStr">
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="BN22" t="inlineStr"/>
-      <c r="BO22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6494,18 +6986,18 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -6516,7 +7008,7 @@
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -6527,150 +7019,172 @@
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL23" t="n">
+      <c r="AR23" t="n">
         <v>7</v>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AV23" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AW23" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AX23" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AY23" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr">
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV23" t="inlineStr">
+      <c r="BB23" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr">
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY23" t="inlineStr">
+      <c r="BE23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ23" t="inlineStr">
+      <c r="BF23" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Phạm Thanh Hoàng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phạm Thanh Hoàng', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA23" t="inlineStr">
+      <c r="BG23" t="inlineStr">
         <is>
           <t>1053be15-a611-470c-818d-307f929a8cd3</t>
         </is>
       </c>
-      <c r="BB23" t="inlineStr">
+      <c r="BH23" t="inlineStr">
         <is>
           <t>Bác sĩ</t>
         </is>
       </c>
-      <c r="BC23" t="inlineStr">
+      <c r="BI23" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="BD23" t="inlineStr">
+      <c r="BJ23" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE23" t="inlineStr">
+      <c r="BK23" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF23" t="inlineStr">
+      <c r="BL23" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG23" t="inlineStr">
+      <c r="BM23" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH23" t="inlineStr">
+      <c r="BN23" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI23" t="inlineStr">
+      <c r="BO23" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ23" t="inlineStr"/>
-      <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="inlineStr"/>
-      <c r="BM23" t="inlineStr">
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr">
         <is>
           <t>2024-01-01</t>
         </is>
       </c>
-      <c r="BN23" t="inlineStr"/>
-      <c r="BO23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6765,18 +7279,18 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -6787,7 +7301,7 @@
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -6798,150 +7312,172 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL24" t="n">
+      <c r="AR24" t="n">
         <v>6</v>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
+      <c r="AV24" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AW24" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AX24" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AY24" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr">
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV24" t="inlineStr">
+      <c r="BB24" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr">
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY24" t="inlineStr">
+      <c r="BE24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ24" t="inlineStr">
+      <c r="BF24" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Lâm Thị Mỹ Hằng', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Lâm Thị Mỹ Hằng', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA24" t="inlineStr">
+      <c r="BG24" t="inlineStr">
         <is>
           <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
-      <c r="BB24" t="inlineStr">
+      <c r="BH24" t="inlineStr">
         <is>
           <t>Quản lý vận hành</t>
         </is>
       </c>
-      <c r="BC24" t="inlineStr">
+      <c r="BI24" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="BD24" t="inlineStr">
+      <c r="BJ24" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE24" t="inlineStr">
+      <c r="BK24" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF24" t="inlineStr">
+      <c r="BL24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG24" t="inlineStr">
+      <c r="BM24" t="inlineStr">
         <is>
           <t>]EdZ</t>
         </is>
       </c>
-      <c r="BH24" t="inlineStr">
+      <c r="BN24" t="inlineStr">
         <is>
           <t>Quản trị cấp cao</t>
         </is>
       </c>
-      <c r="BI24" t="inlineStr">
+      <c r="BO24" t="inlineStr">
         <is>
           <t>gray</t>
         </is>
       </c>
-      <c r="BJ24" t="inlineStr"/>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" t="inlineStr"/>
-      <c r="BM24" t="inlineStr">
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="BN24" t="inlineStr"/>
-      <c r="BO24" t="inlineStr"/>
+      <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7036,18 +7572,18 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -7058,7 +7594,7 @@
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -7069,158 +7605,180 @@
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL25" t="n">
+      <c r="AR25" t="n">
         <v>5</v>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AW25" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AX25" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AY25" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AZ25" t="inlineStr">
         <is>
           <t>0898833566</t>
         </is>
       </c>
-      <c r="AU25" t="inlineStr">
+      <c r="BA25" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV25" t="inlineStr">
+      <c r="BB25" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="inlineStr">
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY25" t="inlineStr">
+      <c r="BE25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ25" t="inlineStr">
+      <c r="BF25" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hoàng Yến Quyên', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hoàng Yến Quyên', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA25" t="inlineStr">
+      <c r="BG25" t="inlineStr">
         <is>
           <t>4ff40eab-711e-4a48-995c-b5a3181e65b4</t>
         </is>
       </c>
-      <c r="BB25" t="inlineStr">
+      <c r="BH25" t="inlineStr">
         <is>
           <t>Quản trị viên</t>
         </is>
       </c>
-      <c r="BC25" t="inlineStr">
+      <c r="BI25" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BD25" t="inlineStr">
+      <c r="BJ25" t="inlineStr">
         <is>
           <t>t;`n</t>
         </is>
       </c>
-      <c r="BE25" t="inlineStr">
+      <c r="BK25" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="BF25" t="inlineStr">
+      <c r="BL25" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="BG25" t="inlineStr">
+      <c r="BM25" t="inlineStr">
         <is>
           <t>?Jwa</t>
         </is>
       </c>
-      <c r="BH25" t="inlineStr">
+      <c r="BN25" t="inlineStr">
         <is>
           <t>Quản trị cơ sở</t>
         </is>
       </c>
-      <c r="BI25" t="inlineStr">
+      <c r="BO25" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BJ25" t="inlineStr">
+      <c r="BP25" t="inlineStr">
         <is>
           <t>2002-08-15</t>
         </is>
       </c>
-      <c r="BK25" t="inlineStr"/>
-      <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="inlineStr">
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="BN25" t="inlineStr"/>
-      <c r="BO25" t="inlineStr"/>
+      <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7315,18 +7873,18 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -7337,7 +7895,7 @@
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -7348,146 +7906,168 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL26" t="n">
+      <c r="AR26" t="n">
         <v>4</v>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
         <is>
           <t>;;Tu</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr">
+      <c r="AV26" t="inlineStr">
         <is>
           <t>OUTSIDE</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AW26" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AX26" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AY26" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr">
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV26" t="inlineStr">
+      <c r="BB26" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr">
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY26" t="inlineStr">
+      <c r="BE26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ26" t="inlineStr">
+      <c r="BF26" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Thạch Hoàng Nhân', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Thạch Hoàng Nhân', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA26" t="inlineStr">
+      <c r="BG26" t="inlineStr">
         <is>
           <t>c62f3533-c5a6-4ac3-84ad-8d1ae7c8ae2e</t>
         </is>
       </c>
-      <c r="BB26" t="inlineStr">
+      <c r="BH26" t="inlineStr">
         <is>
           <t>CTV</t>
         </is>
       </c>
-      <c r="BC26" t="inlineStr">
+      <c r="BI26" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="BD26" t="inlineStr">
+      <c r="BJ26" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BE26" t="inlineStr">
+      <c r="BK26" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BF26" t="inlineStr">
+      <c r="BL26" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BG26" t="inlineStr">
+      <c r="BM26" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH26" t="inlineStr">
+      <c r="BN26" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI26" t="inlineStr">
+      <c r="BO26" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ26" t="inlineStr"/>
-      <c r="BK26" t="inlineStr"/>
-      <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="inlineStr"/>
-      <c r="BN26" t="inlineStr"/>
-      <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7507,7 +8087,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-08T15:21:00.000Z</t>
+          <t>2024-07-19T13:28:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -7582,18 +8162,18 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -7604,7 +8184,7 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -7615,162 +8195,184 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL27" t="n">
+      <c r="AR27" t="n">
         <v>1</v>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr">
+      <c r="AV27" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AW27" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AX27" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AY27" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT27" t="inlineStr">
+      <c r="AZ27" t="inlineStr">
         <is>
           <t>0386756091</t>
         </is>
       </c>
-      <c r="AU27" t="inlineStr">
+      <c r="BA27" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV27" t="inlineStr">
+      <c r="BB27" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW27" t="inlineStr">
+      <c r="BC27" t="inlineStr">
         <is>
           <t>hai.mda01@gmail.com</t>
         </is>
       </c>
-      <c r="AX27" t="inlineStr">
+      <c r="BD27" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY27" t="inlineStr">
+      <c r="BE27" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ27" t="inlineStr">
+      <c r="BF27" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Đỗ Tiến Hải', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Đỗ Tiến Hải', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA27" t="inlineStr">
+      <c r="BG27" t="inlineStr">
         <is>
           <t>7b471659-968e-4223-a416-2ea11902750b</t>
         </is>
       </c>
-      <c r="BB27" t="inlineStr">
+      <c r="BH27" t="inlineStr">
         <is>
           <t>Kỹ thuật viên</t>
         </is>
       </c>
-      <c r="BC27" t="inlineStr">
+      <c r="BI27" t="inlineStr">
         <is>
           <t>default</t>
         </is>
       </c>
-      <c r="BD27" t="inlineStr">
+      <c r="BJ27" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BE27" t="inlineStr">
+      <c r="BK27" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BF27" t="inlineStr">
+      <c r="BL27" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BG27" t="inlineStr">
+      <c r="BM27" t="inlineStr">
         <is>
           <t>\[^V</t>
         </is>
       </c>
-      <c r="BH27" t="inlineStr">
+      <c r="BN27" t="inlineStr">
         <is>
           <t>Chính thức</t>
         </is>
       </c>
-      <c r="BI27" t="inlineStr">
+      <c r="BO27" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="BJ27" t="inlineStr">
+      <c r="BP27" t="inlineStr">
         <is>
           <t>2001-11-02</t>
         </is>
       </c>
-      <c r="BK27" t="inlineStr"/>
-      <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="inlineStr">
+      <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr">
         <is>
           <t>2024-05-01</t>
         </is>
       </c>
-      <c r="BN27" t="inlineStr"/>
-      <c r="BO27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7790,7 +8392,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-08T15:21:00.000Z</t>
+          <t>2024-07-19T13:28:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -7865,18 +8467,18 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>LgyH</t>
+          <t>%3Enmt</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>select</t>
+          <t>number</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Mb%3CL</t>
+          <t>LgyH</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -7887,7 +8489,7 @@
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>OaR_</t>
+          <t>Mb%3CL</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -7898,162 +8500,184 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>jr%3F%3A</t>
+          <t>O%5BJN</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr">
         <is>
+          <t>OaR_</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>jr%3F%3A</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr">
+        <is>
           <t>kDDv</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>unique_id</t>
         </is>
       </c>
-      <c r="AK28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>NV</t>
         </is>
       </c>
-      <c r="AL28" t="n">
+      <c r="AR28" t="n">
         <v>2</v>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>nWf%3D</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
         <is>
           <t>KqT_</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr">
+      <c r="AV28" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AW28" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AX28" t="inlineStr">
         <is>
           <t>tSw%40</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AY28" t="inlineStr">
         <is>
           <t>phone_number</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr">
+      <c r="AZ28" t="inlineStr">
         <is>
           <t>0326665814</t>
         </is>
       </c>
-      <c r="AU28" t="inlineStr">
+      <c r="BA28" t="inlineStr">
         <is>
           <t>x%7BZK</t>
         </is>
       </c>
-      <c r="AV28" t="inlineStr">
+      <c r="BB28" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AW28" t="inlineStr">
+      <c r="BC28" t="inlineStr">
         <is>
           <t>manager.clozhcraft@gmail.com</t>
         </is>
       </c>
-      <c r="AX28" t="inlineStr">
+      <c r="BD28" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AY28" t="inlineStr">
+      <c r="BE28" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AZ28" t="inlineStr">
+      <c r="BF28" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'Nguyễn Hữu Quang', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Nguyễn Hữu Quang', 'href': None}]</t>
         </is>
       </c>
-      <c r="BA28" t="inlineStr">
+      <c r="BG28" t="inlineStr">
         <is>
           <t>98f2e8bb-7310-4590-ad26-16d6bcfd6089</t>
         </is>
       </c>
-      <c r="BB28" t="inlineStr">
+      <c r="BH28" t="inlineStr">
         <is>
           <t>Quản lý vận hành</t>
         </is>
       </c>
-      <c r="BC28" t="inlineStr">
+      <c r="BI28" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="BD28" t="inlineStr">
+      <c r="BJ28" t="inlineStr">
         <is>
           <t>GL=j</t>
         </is>
       </c>
-      <c r="BE28" t="inlineStr">
+      <c r="BK28" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="BF28" t="inlineStr">
+      <c r="BL28" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="BG28" t="inlineStr">
+      <c r="BM28" t="inlineStr">
         <is>
           <t>dux}</t>
         </is>
       </c>
-      <c r="BH28" t="inlineStr">
+      <c r="BN28" t="inlineStr">
         <is>
           <t>Quản trị cấp trung</t>
         </is>
       </c>
-      <c r="BI28" t="inlineStr">
+      <c r="BO28" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="BJ28" t="inlineStr">
+      <c r="BP28" t="inlineStr">
         <is>
           <t>2001-08-23</t>
         </is>
       </c>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="inlineStr">
+      <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="BN28" t="inlineStr"/>
-      <c r="BO28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
